--- a/Insteon_Controller_Commands.xlsx
+++ b/Insteon_Controller_Commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharris\OneDrive\Documents\Insteon Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TomHarris\Source\Repos\dev_guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1565C76AE95514667511E48C071BDB256622722F" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{0C080403-01ED-4329-A2A8-5E4EA8502886}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED33A70-862A-48F1-A2C1-2B3515F9ECB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="13200" windowHeight="4050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Messages" sheetId="2" r:id="rId1"/>
@@ -8416,12 +8416,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8434,40 +8467,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8811,21 +8811,21 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.86328125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="44.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="196.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="196.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -9073,12 +9073,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -9093,12 +9093,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -9113,12 +9113,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -9133,12 +9133,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -9153,12 +9153,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -9173,12 +9173,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -9193,12 +9193,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -9213,12 +9213,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -9233,12 +9233,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -9253,12 +9253,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -9273,12 +9273,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -9293,12 +9293,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -9313,12 +9313,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -9333,12 +9333,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -9353,12 +9353,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
@@ -9373,12 +9373,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -9393,12 +9393,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -9413,12 +9413,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -9433,12 +9433,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>84</v>
       </c>
@@ -9469,20 +9469,20 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="294" t="s">
         <v>846</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="295" t="s">
         <v>850</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>X10_COMMAND_ALL_UNITS_OFF</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="295" t="s">
         <v>854</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>X10_COMMAND_ALL_LIGHTS_ON</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="295" t="s">
         <v>857</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>X10_COMMAND_ALL_LIGHTS_OFF</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="295" t="s">
         <v>860</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>X10_COMMAND_ON</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="295" t="s">
         <v>863</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>X10_COMMAND_OFF</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="295" t="s">
         <v>866</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>X10_COMMAND_DIM</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="295" t="s">
         <v>869</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>X10_COMMAND_BRIGHT</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="295" t="s">
         <v>872</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>X10_COMMAND_EXTENDED_CODE</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="295" t="s">
         <v>875</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>X10_COMMAND_HAIL_REQUEST</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="295" t="s">
         <v>878</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>X10_COMMAND_HAIL_ACKNOWLEDGE</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="295" t="s">
         <v>881</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>X10_COMMAND_PRE-SET_DIM</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="295" t="s">
         <v>884</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>X10_COMMAND_STATUS_IS_ON</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="295" t="s">
         <v>887</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>X10_COMMAND_STATUS_IS_OFF</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="295" t="s">
         <v>890</v>
       </c>
@@ -9880,31 +9880,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1328125" style="120" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" style="120" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="120" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.86328125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="26.59765625" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.3984375" style="122" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.73046875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="51" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="122" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" style="36" customWidth="1"/>
     <col min="9" max="9" width="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.3984375" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" customWidth="1"/>
-    <col min="13" max="13" width="82.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="82.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
         <v>124</v>
       </c>
@@ -9927,7 +9926,7 @@
       </c>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>128</v>
       </c>
@@ -9950,7 +9949,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>128</v>
       </c>
@@ -9973,7 +9972,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
         <v>133</v>
       </c>
@@ -9996,7 +9995,7 @@
       </c>
       <c r="I4" s="63"/>
     </row>
-    <row r="5" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>137</v>
       </c>
@@ -10019,7 +10018,7 @@
       </c>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>321</v>
       </c>
@@ -10042,7 +10041,7 @@
       </c>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>142</v>
       </c>
@@ -10065,7 +10064,7 @@
       </c>
       <c r="I7" s="63"/>
     </row>
-    <row r="8" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>143</v>
       </c>
@@ -10088,7 +10087,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>128</v>
       </c>
@@ -10111,7 +10110,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>128</v>
       </c>
@@ -10134,7 +10133,7 @@
       </c>
       <c r="I10" s="63"/>
     </row>
-    <row r="11" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>147</v>
       </c>
@@ -10157,7 +10156,7 @@
       </c>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>326</v>
       </c>
@@ -10180,7 +10179,7 @@
       </c>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
         <v>128</v>
       </c>
@@ -10203,7 +10202,7 @@
       </c>
       <c r="I13" s="63"/>
     </row>
-    <row r="14" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="83" t="s">
         <v>150</v>
       </c>
@@ -10226,7 +10225,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>128</v>
       </c>
@@ -10250,7 +10249,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>128</v>
       </c>
@@ -10274,7 +10273,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
         <v>155</v>
       </c>
@@ -10298,7 +10297,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="83" t="s">
         <v>157</v>
       </c>
@@ -10322,7 +10321,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="94" t="s">
         <v>159</v>
       </c>
@@ -10346,7 +10345,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="94" t="s">
         <v>159</v>
       </c>
@@ -10370,7 +10369,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
         <v>163</v>
       </c>
@@ -10394,7 +10393,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="98" t="s">
         <v>163</v>
       </c>
@@ -10418,7 +10417,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
         <v>167</v>
       </c>
@@ -10442,7 +10441,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="94" t="s">
         <v>167</v>
       </c>
@@ -10466,7 +10465,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="98" t="s">
         <v>170</v>
       </c>
@@ -10490,7 +10489,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="98" t="s">
         <v>170</v>
       </c>
@@ -10514,7 +10513,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="94" t="s">
         <v>173</v>
       </c>
@@ -10538,7 +10537,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="94" t="s">
         <v>175</v>
       </c>
@@ -10562,7 +10561,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="143" t="s">
         <v>339</v>
       </c>
@@ -10588,7 +10587,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="98" t="s">
         <v>179</v>
       </c>
@@ -10612,7 +10611,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="71.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="143" t="s">
         <v>340</v>
       </c>
@@ -10636,7 +10635,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="98" t="s">
         <v>182</v>
       </c>
@@ -10660,7 +10659,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="71.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="143" t="s">
         <v>344</v>
       </c>
@@ -10684,7 +10683,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
         <v>182</v>
       </c>
@@ -10708,7 +10707,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="73" t="s">
         <v>128</v>
       </c>
@@ -10732,7 +10731,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="142.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="143" t="s">
         <v>348</v>
       </c>
@@ -10760,7 +10759,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="253.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="98" t="s">
         <v>356</v>
       </c>
@@ -10788,7 +10787,7 @@
       <c r="I37" s="35"/>
       <c r="J37" s="36"/>
     </row>
-    <row r="38" spans="1:12" ht="253.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="132" t="s">
         <v>363</v>
       </c>
@@ -10816,7 +10815,7 @@
       <c r="I38" s="27"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="253.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="98" t="s">
         <v>184</v>
       </c>
@@ -10844,7 +10843,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="253.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="98" t="s">
         <v>371</v>
       </c>
@@ -10872,7 +10871,7 @@
       <c r="I40" s="27"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="263.64999999999998" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" ht="293.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="132" t="s">
         <v>374</v>
       </c>
@@ -10900,7 +10899,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="233.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>184</v>
       </c>
@@ -10928,7 +10927,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="81.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="98" t="s">
         <v>420</v>
       </c>
@@ -10954,7 +10953,7 @@
       <c r="I43" s="27"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="142.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="98" t="s">
         <v>418</v>
       </c>
@@ -10980,7 +10979,7 @@
       <c r="I44" s="27"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="142.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="156" t="s">
         <v>417</v>
       </c>
@@ -11007,7 +11006,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="122.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="98" t="s">
         <v>191</v>
       </c>
@@ -11035,7 +11034,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="142.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>412</v>
       </c>
@@ -11063,7 +11062,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="142.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="98" t="s">
         <v>409</v>
       </c>
@@ -11091,7 +11090,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="282.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" ht="282.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="98" t="s">
         <v>191</v>
       </c>
@@ -11119,7 +11118,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="98" t="s">
         <v>194</v>
       </c>
@@ -11143,7 +11142,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="98" t="s">
         <v>197</v>
       </c>
@@ -11167,7 +11166,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="98" t="s">
         <v>197</v>
       </c>
@@ -11191,7 +11190,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="98" t="s">
         <v>200</v>
       </c>
@@ -11215,7 +11214,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="98" t="s">
         <v>200</v>
       </c>
@@ -11239,7 +11238,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="51" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="98" t="s">
         <v>382</v>
       </c>
@@ -11263,7 +11262,7 @@
       <c r="I55" s="27"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:12" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="98" t="s">
         <v>387</v>
       </c>
@@ -11287,7 +11286,7 @@
       <c r="I56" s="27"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:12" ht="81.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>203</v>
       </c>
@@ -11313,7 +11312,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="115" t="s">
         <v>128</v>
       </c>
@@ -11337,7 +11336,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:12" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="109" t="s">
         <v>207</v>
       </c>
@@ -11361,7 +11360,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="165" t="s">
         <v>211</v>
       </c>
@@ -11385,7 +11384,7 @@
       <c r="I60" s="27"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="165" t="s">
         <v>214</v>
       </c>
@@ -11409,7 +11408,7 @@
       <c r="I61" s="27"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:12" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="165" t="s">
         <v>128</v>
       </c>
@@ -11433,7 +11432,7 @@
       <c r="I62" s="27"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="165" t="s">
         <v>219</v>
       </c>
@@ -11457,7 +11456,7 @@
       <c r="I63" s="27"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="165" t="s">
         <v>394</v>
       </c>
@@ -11481,7 +11480,7 @@
       <c r="I64" s="27"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="165" t="s">
         <v>395</v>
       </c>
@@ -11505,7 +11504,7 @@
       <c r="I65" s="27"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="98" t="s">
         <v>225</v>
       </c>
@@ -11529,7 +11528,7 @@
       <c r="I66" s="27"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="65" t="s">
         <v>228</v>
       </c>
@@ -11555,7 +11554,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="60" t="s">
         <v>128</v>
       </c>
@@ -11579,7 +11578,7 @@
       <c r="I68" s="27"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="98" t="s">
         <v>231</v>
       </c>
@@ -11603,7 +11602,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="98" t="s">
         <v>234</v>
       </c>
@@ -11627,7 +11626,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="65" t="s">
         <v>403</v>
       </c>
@@ -11651,7 +11650,7 @@
       <c r="I71" s="14"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="132" t="s">
         <v>405</v>
       </c>
@@ -11677,7 +11676,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="24"/>
     </row>
-    <row r="73" spans="1:12" ht="183" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="204" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="98" t="s">
         <v>238</v>
       </c>
@@ -11707,7 +11706,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="132" t="s">
         <v>426</v>
       </c>
@@ -11734,7 +11733,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:12" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="132" t="s">
         <v>430</v>
       </c>
@@ -11761,7 +11760,7 @@
       <c r="J75" s="16"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:12" ht="40.9" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="132" t="s">
         <v>242</v>
       </c>
@@ -11786,7 +11785,7 @@
       <c r="J76" s="16"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:12" ht="20.65" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="132" t="s">
         <v>244</v>
       </c>
@@ -11811,7 +11810,7 @@
       <c r="J77" s="16"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="98" t="s">
         <v>246</v>
       </c>
@@ -11836,7 +11835,7 @@
       <c r="J78" s="21"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="98" t="s">
         <v>249</v>
       </c>
@@ -11861,7 +11860,7 @@
       <c r="J79" s="23"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="73" t="s">
         <v>128</v>
       </c>
@@ -11886,7 +11885,7 @@
       <c r="J80" s="31"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" ht="23.25" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="132" t="s">
         <v>252</v>
       </c>
@@ -11911,7 +11910,7 @@
       <c r="J81" s="18"/>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="14.65" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="132" t="s">
         <v>255</v>
       </c>
@@ -11936,7 +11935,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="98" t="s">
         <v>257</v>
       </c>
@@ -11960,7 +11959,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:11" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="132" t="s">
         <v>261</v>
       </c>
@@ -11984,7 +11983,7 @@
       <c r="I84" s="27"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="98" t="s">
         <v>264</v>
       </c>
@@ -12008,7 +12007,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:11" ht="81" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>266</v>
       </c>
@@ -12034,7 +12033,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:11" ht="117.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="98" t="s">
         <v>442</v>
       </c>
@@ -12058,7 +12057,7 @@
       <c r="I87" s="27"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:11" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="98" t="s">
         <v>444</v>
       </c>
@@ -12082,7 +12081,7 @@
       <c r="I88" s="27"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:11" ht="172.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="98" t="s">
         <v>270</v>
       </c>
@@ -12108,7 +12107,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:11" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
         <v>272</v>
       </c>
@@ -12130,7 +12129,7 @@
       <c r="G90" s="97"/>
       <c r="H90" s="178"/>
     </row>
-    <row r="91" spans="1:11" ht="60.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>275</v>
       </c>
@@ -12153,7 +12152,7 @@
       <c r="H91" s="50"/>
       <c r="I91" s="24"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="132" t="s">
         <v>277</v>
       </c>
@@ -12176,7 +12175,7 @@
       </c>
       <c r="I92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="98" t="s">
         <v>280</v>
       </c>
@@ -12199,7 +12198,7 @@
       </c>
       <c r="I93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="162.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>283</v>
       </c>
@@ -12224,7 +12223,7 @@
       <c r="H94" s="10"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="73" t="s">
         <v>128</v>
       </c>
@@ -12245,7 +12244,7 @@
       <c r="H95" s="25"/>
       <c r="I95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="91.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98" t="s">
         <v>285</v>
       </c>
@@ -12268,7 +12267,7 @@
       <c r="H96" s="56"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:10" ht="91.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:10" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="98" t="s">
         <v>287</v>
       </c>
@@ -12294,7 +12293,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="73" t="s">
         <v>128</v>
       </c>
@@ -12318,7 +12317,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="98" t="s">
         <v>289</v>
       </c>
@@ -12344,7 +12343,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98" t="s">
         <v>463</v>
       </c>
@@ -12368,7 +12367,7 @@
       <c r="I100" s="27"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
         <v>128</v>
       </c>
@@ -12392,7 +12391,7 @@
       <c r="I101" s="27"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="98" t="s">
         <v>462</v>
       </c>
@@ -12416,7 +12415,7 @@
       <c r="I102" s="27"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="98" t="s">
         <v>464</v>
       </c>
@@ -12440,7 +12439,7 @@
       <c r="I103" s="27"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" ht="71.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
         <v>297</v>
       </c>
@@ -12466,7 +12465,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" ht="91.15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A105" s="132" t="s">
         <v>300</v>
       </c>
@@ -12490,7 +12489,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="60.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A106" s="180" t="s">
         <v>300</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="30.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A107" s="180" t="s">
         <v>300</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="50.65" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A108" s="180" t="s">
         <v>300</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="70.900000000000006" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A109" s="180" t="s">
         <v>300</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="91.15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A110" s="180" t="s">
         <v>300</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="51" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="181" t="s">
         <v>300</v>
       </c>
@@ -12634,7 +12633,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="98" t="s">
         <v>303</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="98" t="s">
         <v>307</v>
       </c>
@@ -12678,7 +12677,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="60" t="s">
         <v>128</v>
       </c>
@@ -12700,7 +12699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="98" t="s">
         <v>310</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="60" t="s">
         <v>128</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="60" t="s">
         <v>128</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="65" t="s">
         <v>314</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="184" t="s">
         <v>128</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="187" t="s">
         <v>316</v>
       </c>
@@ -12833,13 +12832,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D120" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0x2E"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D120" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="4">
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="E87:G87"/>
@@ -12859,16 +12852,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'SD Device Commands'!A1</f>
         <v xml:space="preserve">SD Commands </v>
@@ -12882,7 +12875,7 @@
         <v xml:space="preserve">Cmd 2 </v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'SD Device Commands'!A4</f>
         <v xml:space="preserve">Assign to ALL-Link Group </v>
@@ -12897,7 +12890,7 @@
         <v>COMMAND_ASSIGN_TO_ALL_LINK_GROUP = {'cmd1':0x01 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'SD Device Commands'!A5</f>
         <v xml:space="preserve">Delete from ALL-Link Group </v>
@@ -12912,7 +12905,7 @@
         <v>COMMAND_DELETE_FROM_ALL_LINK_GROUP = {'cmd1':0x02 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'SD Device Commands'!A6</f>
         <v>Product Data Request</v>
@@ -12930,7 +12923,7 @@
         <v>COMMAND_PRODUCT_DATA_REQUEST = {'cmd1':0x03 ,'cmd2':0x00 }</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'SD Device Commands'!A7</f>
         <v xml:space="preserve">FX Username </v>
@@ -12948,7 +12941,7 @@
         <v>COMMAND_FX_USERNAME = {'cmd1':0x03 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'SD Device Commands'!A8</f>
         <v xml:space="preserve">Device Text String Request </v>
@@ -12966,7 +12959,7 @@
         <v>COMMAND_DEVICE_TEXT_STRING_REQUEST = {'cmd1':0x03 ,'cmd2':0x02 }</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'SD Device Commands'!A11</f>
         <v xml:space="preserve">Enter Linking Mode </v>
@@ -12980,7 +12973,7 @@
         <v>COMMAND_ENTER_LINKING_MODE = {'cmd1':0x09 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'SD Device Commands'!A12</f>
         <v>Enter Unlinking Mode</v>
@@ -12994,7 +12987,7 @@
         <v>COMMAND_ENTER_UNLINKING_MODE = {'cmd1':0x0A ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'SD Device Commands'!A14</f>
         <v xml:space="preserve">Get INSTEON Engine Version </v>
@@ -13012,7 +13005,7 @@
         <v>COMMAND_GET_INSTEON_ENGINE_VERSION = {'cmd1':0x0D ,'cmd2':0x00 }</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'SD Device Commands'!A17</f>
         <v xml:space="preserve">Ping </v>
@@ -13029,7 +13022,7 @@
         <v>COMMAND_PING = {'cmd1':0x0F ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'SD Device Commands'!A18</f>
         <v xml:space="preserve">ID Request </v>
@@ -13046,7 +13039,7 @@
         <v>COMMAND_ID_REQUEST = {'cmd1':0x10 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'SD Device Commands'!A19</f>
         <v xml:space="preserve">Light ON </v>
@@ -13060,7 +13053,7 @@
         <v>COMMAND_LIGHT_ON = {'cmd1':0x11 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'SD Device Commands'!A20</f>
         <v xml:space="preserve">Light ON </v>
@@ -13077,7 +13070,7 @@
         <v>COMMAND_LIGHT_ON = {'cmd1':0x11 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'SD Device Commands'!A21</f>
         <v xml:space="preserve">Light ON Fast </v>
@@ -13091,7 +13084,7 @@
         <v>COMMAND_LIGHT_ON_FAST = {'cmd1':0x12 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'SD Device Commands'!A22</f>
         <v xml:space="preserve">Light ON Fast </v>
@@ -13108,7 +13101,7 @@
         <v>COMMAND_LIGHT_ON_FAST = {'cmd1':0x12 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'SD Device Commands'!A23</f>
         <v xml:space="preserve">Light OFF </v>
@@ -13125,7 +13118,7 @@
         <v>COMMAND_LIGHT_OFF = {'cmd1':0x13 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'SD Device Commands'!A24</f>
         <v xml:space="preserve">Light OFF </v>
@@ -13142,7 +13135,7 @@
         <v>COMMAND_LIGHT_OFF = {'cmd1':0x13 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'SD Device Commands'!A25</f>
         <v xml:space="preserve">Light OFF Fast </v>
@@ -13159,7 +13152,7 @@
         <v>COMMAND_LIGHT_OFF_FAST = {'cmd1':0x14 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'SD Device Commands'!A26</f>
         <v xml:space="preserve">Light OFF Fast </v>
@@ -13176,7 +13169,7 @@
         <v>COMMAND_LIGHT_OFF_FAST = {'cmd1':0x14 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'SD Device Commands'!A27</f>
         <v xml:space="preserve">Light Brighten One Step  </v>
@@ -13193,7 +13186,7 @@
         <v>COMMAND_LIGHT_BRIGHTEN_ONE_STEP = {'cmd1':0x15 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'SD Device Commands'!A28</f>
         <v xml:space="preserve">Light Dim One Step </v>
@@ -13210,7 +13203,7 @@
         <v>COMMAND_LIGHT_DIM_ONE_STEP = {'cmd1':0x16 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'SD Device Commands'!A29</f>
         <v>Light Start Manual Change</v>
@@ -13230,7 +13223,7 @@
         <v>COMMAND_LIGHT_START_MANUAL_CHANGEDOWN = {'cmd1':0x17 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>A22</f>
         <v>Light Start Manual Change</v>
@@ -13250,7 +13243,7 @@
         <v>COMMAND_LIGHT_START_MANUAL_CHANGEUP = {'cmd1':0x17 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'SD Device Commands'!A30</f>
         <v xml:space="preserve">Light Stop Manual Change </v>
@@ -13267,7 +13260,7 @@
         <v>COMMAND_LIGHT_STOP_MANUAL_CHANGE = {'cmd1':0x18 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'SD Device Commands'!A32</f>
         <v xml:space="preserve">Light Status Request </v>
@@ -13284,7 +13277,7 @@
         <v>COMMAND_LIGHT_STATUS_REQUEST = {'cmd1':0x19 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'SD Device Commands'!A34</f>
         <v xml:space="preserve">Light Status Request </v>
@@ -13301,7 +13294,7 @@
         <v>COMMAND_LIGHT_STATUS_REQUEST = {'cmd1':0x19 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="292" t="str">
         <f>'SD Device Commands'!A39</f>
         <v xml:space="preserve">Get Operating Flags </v>
@@ -13315,7 +13308,7 @@
         <v>COMMAND_GET_OPERATING_FLAGS = {'cmd1':0x1F ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="292" t="str">
         <f>'SD Device Commands'!A42</f>
         <v xml:space="preserve">Get Operating Flags </v>
@@ -13329,7 +13322,7 @@
         <v>COMMAND_GET_OPERATING_FLAGS = {'cmd1':0x1F ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="292" t="str">
         <f>'SD Device Commands'!A46</f>
         <v xml:space="preserve">Set Operating Flags </v>
@@ -13343,7 +13336,7 @@
         <v>COMMAND_SET_OPERATING_FLAGS = {'cmd1':0x20 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="292" t="str">
         <f>'SD Device Commands'!A49</f>
         <v xml:space="preserve">Set Operating Flags </v>
@@ -13357,7 +13350,7 @@
         <v>COMMAND_SET_OPERATING_FLAGS = {'cmd1':0x20 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'SD Device Commands'!A50</f>
         <v xml:space="preserve">Light Instant Change </v>
@@ -13371,7 +13364,7 @@
         <v>COMMAND_LIGHT_INSTANT_CHANGE = {'cmd1':0x21 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'SD Device Commands'!A51</f>
         <v xml:space="preserve">Light Manually Turned Off </v>
@@ -13388,7 +13381,7 @@
         <v>COMMAND_LIGHT_MANUALLY_TURNED_OFF = {'cmd1':0x22 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'SD Device Commands'!A52</f>
         <v xml:space="preserve">Light Manually Turned Off </v>
@@ -13405,7 +13398,7 @@
         <v>COMMAND_LIGHT_MANUALLY_TURNED_OFF = {'cmd1':0x22 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'SD Device Commands'!A53</f>
         <v xml:space="preserve">Light Manually Turned On </v>
@@ -13422,7 +13415,7 @@
         <v>COMMAND_LIGHT_MANUALLY_TURNED_ON = {'cmd1':0x23 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'SD Device Commands'!A54</f>
         <v xml:space="preserve">Light Manually Turned On </v>
@@ -13439,7 +13432,7 @@
         <v>COMMAND_LIGHT_MANUALLY_TURNED_ON = {'cmd1':0x23 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'SD Device Commands'!A57</f>
         <v xml:space="preserve">Remote SET Button Tap </v>
@@ -13459,7 +13452,7 @@
         <v>COMMAND_REMOTE_SET_BUTTON_TAP1_TAP = {'cmd1':0x25 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>A36</f>
         <v xml:space="preserve">Remote SET Button Tap </v>
@@ -13479,7 +13472,7 @@
         <v>COMMAND_REMOTE_SET_BUTTON_TAP2_TAP = {'cmd1':0x25 ,'cmd2':0x02 }</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'SD Device Commands'!A59</f>
         <v xml:space="preserve">Light Set Status </v>
@@ -13493,7 +13486,7 @@
         <v>COMMAND_LIGHT_SET_STATUS = {'cmd1':0x27 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'SD Device Commands'!A60</f>
         <v xml:space="preserve">Set Address MSB </v>
@@ -13507,7 +13500,7 @@
         <v>COMMAND_SET_ADDRESS_MSB = {'cmd1':0x28 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'SD Device Commands'!A61</f>
         <v xml:space="preserve">Poke One Byte </v>
@@ -13521,7 +13514,7 @@
         <v>COMMAND_POKE_ONE_BYTE = {'cmd1':0x29 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'SD Device Commands'!A62</f>
         <v xml:space="preserve">Reserved </v>
@@ -13535,7 +13528,7 @@
         <v>COMMAND_RESERVED = {'cmd1':0x2A ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'SD Device Commands'!A63</f>
         <v xml:space="preserve">Peek One Byte </v>
@@ -13549,7 +13542,7 @@
         <v>COMMAND_PEEK_ONE_BYTE = {'cmd1':0x2B ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'SD Device Commands'!A64</f>
         <v>Peek One Byte Internal</v>
@@ -13563,7 +13556,7 @@
         <v>COMMAND_PEEK_ONE_BYTE_INTERNAL = {'cmd1':0x2C ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'SD Device Commands'!A65</f>
         <v>Poke One Byte Internal</v>
@@ -13577,7 +13570,7 @@
         <v>COMMAND_POKE_ONE_BYTE_INTERNAL = {'cmd1':0x2D ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'SD Device Commands'!A66</f>
         <v xml:space="preserve">Light ON at Ramp Rate </v>
@@ -13591,7 +13584,7 @@
         <v>COMMAND_LIGHT_ON_AT_RAMP_RATE = {'cmd1':0x2E ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'SD Device Commands'!A67</f>
         <v xml:space="preserve">Light OFF at Ramp Rate </v>
@@ -13605,7 +13598,7 @@
         <v>COMMAND_LIGHT_OFF_AT_RAMP_RATE = {'cmd1':0x2F ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'SD Device Commands'!A69</f>
         <v xml:space="preserve">Sprinkler Valve ON </v>
@@ -13619,7 +13612,7 @@
         <v>COMMAND_SPRINKLER_VALVE_ON = {'cmd1':0x40 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'SD Device Commands'!A70</f>
         <v xml:space="preserve">Sprinkler Valve OFF </v>
@@ -13633,7 +13626,7 @@
         <v>COMMAND_SPRINKLER_VALVE_OFF = {'cmd1':0x41 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'SD Device Commands'!A71</f>
         <v>Sprinkler Program  On</v>
@@ -13647,7 +13640,7 @@
         <v>COMMAND_SPRINKLER_PROGRAM_ON = {'cmd1':0x42 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'SD Device Commands'!A72</f>
         <v>Sprinkler Program Off</v>
@@ -13661,7 +13654,7 @@
         <v>COMMAND_SPRINKLER_PROGRAM_OFF = {'cmd1':0x43 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'SD Device Commands'!A73</f>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13681,7 +13674,7 @@
         <v>COMMAND_SPRINKLER_CONTROLLOAD_INITIALIZATION_VALUES = {'cmd1':0x44 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>A51</f>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13701,7 +13694,7 @@
         <v>COMMAND_SPRINKLER_CONTROLLOAD_EEPROM_FROM_RAM = {'cmd1':0x44 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" ref="A53:A66" si="1">A52</f>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13721,7 +13714,7 @@
         <v>COMMAND_SPRINKLER_CONTROLGET_VALVE_STATUS = {'cmd1':0x44 ,'cmd2':0x02 }</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13741,7 +13734,7 @@
         <v>COMMAND_SPRINKLER_CONTROLINHIBIT_COMMAND_ACCEPTANCE = {'cmd1':0x44 ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13761,7 +13754,7 @@
         <v>COMMAND_SPRINKLER_CONTROLRESUME_COMMAND_ACCEPTANCE = {'cmd1':0x44 ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13781,7 +13774,7 @@
         <v>COMMAND_SPRINKLER_CONTROLSKIP_FORWARD = {'cmd1':0x44 ,'cmd2':0x05}</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13801,7 +13794,7 @@
         <v>COMMAND_SPRINKLER_CONTROLSKIP_BACK = {'cmd1':0x44 ,'cmd2':0x06}</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13821,7 +13814,7 @@
         <v>COMMAND_SPRINKLER_CONTROLENABLE_PUMP_ON_V8 = {'cmd1':0x44 ,'cmd2':0x07}</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13841,7 +13834,7 @@
         <v>COMMAND_SPRINKLER_CONTROLDISABLE_PUMP_ON_V8 = {'cmd1':0x44 ,'cmd2':0x08}</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13861,7 +13854,7 @@
         <v>COMMAND_SPRINKLER_CONTROLBROADCAST_ON = {'cmd1':0x44 ,'cmd2':0x09}</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13881,7 +13874,7 @@
         <v>COMMAND_SPRINKLER_CONTROLBROADCAST_OFF = {'cmd1':0x44 ,'cmd2':0x0A}</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13901,7 +13894,7 @@
         <v>COMMAND_SPRINKLER_CONTROLLOAD_RAM_FROM_EEPROM = {'cmd1':0x44 ,'cmd2':0x0B}</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13921,7 +13914,7 @@
         <v>COMMAND_SPRINKLER_CONTROLSENSOR_ON = {'cmd1':0x44 ,'cmd2':0x0C}</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13941,7 +13934,7 @@
         <v>COMMAND_SPRINKLER_CONTROLSENSOR_OFF = {'cmd1':0x44 ,'cmd2':0x0D }</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13961,7 +13954,7 @@
         <v>COMMAND_SPRINKLER_CONTROLDIAGNOSTICS_ON = {'cmd1':0x44 ,'cmd2':0x0E}</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sprinkler Control </v>
@@ -13981,7 +13974,7 @@
         <v>COMMAND_SPRINKLER_CONTROLDIAGNOSTICS_OFF = {'cmd1':0x44 ,'cmd2':0x0F}</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'SD Device Commands'!A76</f>
         <v xml:space="preserve">Sprinkler Get Program Request </v>
@@ -13996,7 +13989,7 @@
         <v>COMMAND_SPRINKLER_GET_PROGRAM_REQUEST = {'cmd1':0x45 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'SD Device Commands'!A77</f>
         <v xml:space="preserve">I/O Output On </v>
@@ -14010,7 +14003,7 @@
         <v>COMMAND_IO_OUTPUT_ON = {'cmd1':0x45 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>'SD Device Commands'!A78</f>
         <v xml:space="preserve">I/O Output Off </v>
@@ -14024,7 +14017,7 @@
         <v>COMMAND_IO_OUTPUT_OFF = {'cmd1':0x46 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>'SD Device Commands'!A79</f>
         <v xml:space="preserve">I/O Alarm Data Request </v>
@@ -14042,7 +14035,7 @@
         <v>COMMAND_IO_ALARM_DATA_REQUEST = {'cmd1':0x47 ,'cmd2':0x00 }</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>'SD Device Commands'!A81</f>
         <v xml:space="preserve">I/O Write Output Port </v>
@@ -14056,7 +14049,7 @@
         <v>COMMAND_IO_WRITE_OUTPUT_PORT = {'cmd1':0x48 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>'SD Device Commands'!A82</f>
         <v xml:space="preserve">I/O Read Input Port </v>
@@ -14074,7 +14067,7 @@
         <v>COMMAND_IO_READ_INPUT_PORT = {'cmd1':0x49 ,'cmd2':0x00 }</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>'SD Device Commands'!A83</f>
         <v xml:space="preserve">I/O Get Sensor Value </v>
@@ -14088,7 +14081,7 @@
         <v>COMMAND_IO_GET_SENSOR_VALUE = {'cmd1':0x4A ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>'SD Device Commands'!A84</f>
         <v xml:space="preserve">I/O Set Sensor 1 Nominal Value </v>
@@ -14102,7 +14095,7 @@
         <v>COMMAND_IO_SET_SENSOR_1_NOMINAL_VALUE = {'cmd1':0x4B ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>'SD Device Commands'!A85</f>
         <v xml:space="preserve">I/O Get Sensor Alarm Delta </v>
@@ -14116,7 +14109,7 @@
         <v>COMMAND_IO_GET_SENSOR_ALARM_DELTA = {'cmd1':0x4C ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="292" t="str">
         <f>'SD Device Commands'!A86</f>
         <v xml:space="preserve">Fan Status Report </v>
@@ -14130,7 +14123,7 @@
         <v>COMMAND_FAN_STATUS_REPORT = {'cmd1':0x4C ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="292" t="str">
         <f>'SD Device Commands'!A87</f>
         <v xml:space="preserve">I/O Write Configuration Port </v>
@@ -14144,7 +14137,7 @@
         <v>COMMAND_IO_WRITE_CONFIGURATION_PORT = {'cmd1':0x4D ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>'SD Device Commands'!A88</f>
         <v xml:space="preserve">I/O Read Configuration Port </v>
@@ -14162,7 +14155,7 @@
         <v>COMMAND_IO_READ_CONFIGURATION_PORT = {'cmd1':0x4E ,'cmd2':0x00 }</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>'SD Device Commands'!A89</f>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14182,7 +14175,7 @@
         <v>COMMAND_IO_MODULE_CONTROLLOAD_INITIALIZATION_VALUES = {'cmd1':0x4F ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>A79</f>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14202,7 +14195,7 @@
         <v>COMMAND_IO_MODULE_CONTROLLOAD_EEPROM_FROM_RAM = {'cmd1':0x4F ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" ref="A81:A90" si="4">A80</f>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14222,7 +14215,7 @@
         <v>COMMAND_IO_MODULE_CONTROLSTATUS_REQUEST = {'cmd1':0x4F ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14242,7 +14235,7 @@
         <v>COMMAND_IO_MODULE_CONTROLREAD_ANALOG_ONCE = {'cmd1':0x4F ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14262,7 +14255,7 @@
         <v>COMMAND_IO_MODULE_CONTROLREAD_ANALOG_ALWAYS = {'cmd1':0x4F ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14282,7 +14275,7 @@
         <v>COMMAND_IO_MODULE_CONTROLENABLE_STATUS_CHANGE_MESSAGE = {'cmd1':0x4F ,'cmd2':0x09}</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14302,7 +14295,7 @@
         <v>COMMAND_IO_MODULE_CONTROLDISABLE_STATUS_CHANGE_MESSAGE = {'cmd1':0x4F ,'cmd2':0x0A}</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14322,7 +14315,7 @@
         <v>COMMAND_IO_MODULE_CONTROLLOAD_RAM_FROM_EEPROM = {'cmd1':0x4F ,'cmd2':0x0B}</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14342,7 +14335,7 @@
         <v>COMMAND_IO_MODULE_CONTROLSENSOR_ON = {'cmd1':0x4F ,'cmd2':0x0C}</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14362,7 +14355,7 @@
         <v>COMMAND_IO_MODULE_CONTROLSENSOR_OFF = {'cmd1':0x4F ,'cmd2':0x0D }</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14382,7 +14375,7 @@
         <v>COMMAND_IO_MODULE_CONTROLDIAGNOSTICS_ON = {'cmd1':0x4F ,'cmd2':0x0E}</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">I/O Module Control </v>
@@ -14402,7 +14395,7 @@
         <v>COMMAND_IO_MODULE_CONTROLDIAGNOSTICS_OFF = {'cmd1':0x4F ,'cmd2':0x0F}</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>'SD Device Commands'!A90</f>
         <v xml:space="preserve">Pool Device ON </v>
@@ -14422,7 +14415,7 @@
         <v>COMMAND_POOL_DEVICE_ONPOOL = {'cmd1':0x50 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>A91</f>
         <v xml:space="preserve">Pool Device ON </v>
@@ -14442,7 +14435,7 @@
         <v>COMMAND_POOL_DEVICE_ONSPA = {'cmd1':0x50 ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v xml:space="preserve">Pool Device ON </v>
@@ -14462,7 +14455,7 @@
         <v>COMMAND_POOL_DEVICE_ONHEAT = {'cmd1':0x50 ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>A93</f>
         <v xml:space="preserve">Pool Device ON </v>
@@ -14482,7 +14475,7 @@
         <v>COMMAND_POOL_DEVICE_ONPUMP = {'cmd1':0x50 ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>A94</f>
         <v xml:space="preserve">Pool Device ON </v>
@@ -14499,7 +14492,7 @@
         <v>COMMAND_POOL_DEVICE_ONAUX = {'cmd1':0x50 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>'SD Device Commands'!A91</f>
         <v xml:space="preserve">Pool Device OFF </v>
@@ -14513,7 +14506,7 @@
         <v>COMMAND_POOL_DEVICE_OFF = {'cmd1':0x51 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>'SD Device Commands'!A92</f>
         <v xml:space="preserve">Pool Temperature Up </v>
@@ -14527,7 +14520,7 @@
         <v>COMMAND_POOL_TEMPERATURE_UP = {'cmd1':0x52 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>'SD Device Commands'!A93</f>
         <v xml:space="preserve">Pool Temperature Down </v>
@@ -14541,7 +14534,7 @@
         <v>COMMAND_POOL_TEMPERATURE_DOWN = {'cmd1':0x53 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>'SD Device Commands'!A94</f>
         <v xml:space="preserve">Pool Control </v>
@@ -14561,7 +14554,7 @@
         <v>COMMAND_POOL_CONTROLLOAD_INITIALIZATION_VALUES = {'cmd1':0x54 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>A99</f>
         <v xml:space="preserve">Pool Control </v>
@@ -14581,7 +14574,7 @@
         <v>COMMAND_POOL_CONTROLLOAD_EEPROM_FROM_RAM = {'cmd1':0x54 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>A100</f>
         <v xml:space="preserve">Pool Control </v>
@@ -14601,7 +14594,7 @@
         <v>COMMAND_POOL_CONTROLGET_POOL_MODE = {'cmd1':0x54 ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>A101</f>
         <v xml:space="preserve">Pool Control </v>
@@ -14621,7 +14614,7 @@
         <v>COMMAND_POOL_CONTROLGET_AMBIENT_TEMPERATURE = {'cmd1':0x54 ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>A102</f>
         <v xml:space="preserve">Pool Control </v>
@@ -14641,7 +14634,7 @@
         <v>COMMAND_POOL_CONTROLGET_WATER_TEMPERATURE = {'cmd1':0x54 ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>A103</f>
         <v xml:space="preserve">Pool Control </v>
@@ -14661,7 +14654,7 @@
         <v>COMMAND_POOL_CONTROLGET_PH = {'cmd1':0x54 ,'cmd2':0x05}</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>'SD Device Commands'!A96</f>
         <v xml:space="preserve">Door Move </v>
@@ -14681,7 +14674,7 @@
         <v>COMMAND_DOOR_MOVERAISE_DOOR = {'cmd1':0x58 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>A105</f>
         <v xml:space="preserve">Door Move </v>
@@ -14701,7 +14694,7 @@
         <v>COMMAND_DOOR_MOVELOWER_DOOR = {'cmd1':0x58 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" ref="A107:A111" si="8">A106</f>
         <v xml:space="preserve">Door Move </v>
@@ -14721,7 +14714,7 @@
         <v>COMMAND_DOOR_MOVEOPEN_DOOR = {'cmd1':0x58 ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Door Move </v>
@@ -14741,7 +14734,7 @@
         <v>COMMAND_DOOR_MOVECLOSE_DOOR = {'cmd1':0x58 ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Door Move </v>
@@ -14761,7 +14754,7 @@
         <v>COMMAND_DOOR_MOVESTOP_DOOR = {'cmd1':0x58 ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Door Move </v>
@@ -14781,7 +14774,7 @@
         <v>COMMAND_DOOR_MOVESINGLE_DOOR_OPEN = {'cmd1':0x58 ,'cmd2':0x05}</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Door Move </v>
@@ -14801,7 +14794,7 @@
         <v>COMMAND_DOOR_MOVESINGLE_DOOR_CLOSE = {'cmd1':0x58 ,'cmd2':0x06}</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>'SD Device Commands'!A97</f>
         <v xml:space="preserve">Door Status Report </v>
@@ -14821,7 +14814,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTRAISE_DOOR = {'cmd1':0x59 ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" ref="A113:A118" si="9">A112</f>
         <v xml:space="preserve">Door Status Report </v>
@@ -14841,7 +14834,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTLOWER_DOOR = {'cmd1':0x59 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Door Status Report </v>
@@ -14861,7 +14854,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTOPEN_DOOR = {'cmd1':0x59 ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Door Status Report </v>
@@ -14881,7 +14874,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTCLOSE_DOOR = {'cmd1':0x59 ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Door Status Report </v>
@@ -14901,7 +14894,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTSTOP_DOOR = {'cmd1':0x59 ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Door Status Report </v>
@@ -14921,7 +14914,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTSINGLE_DOOR_OPEN = {'cmd1':0x59 ,'cmd2':0x05}</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Door Status Report </v>
@@ -14941,7 +14934,7 @@
         <v>COMMAND_DOOR_STATUS_REPORTSINGLE_DOOR_CLOSE = {'cmd1':0x59 ,'cmd2':0x06}</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>'SD Device Commands'!A99</f>
         <v xml:space="preserve">Window Covering </v>
@@ -14961,7 +14954,7 @@
         <v>COMMAND_WINDOW_COVERINGOPEN = {'cmd1':0x60 ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>A119</f>
         <v xml:space="preserve">Window Covering </v>
@@ -14981,7 +14974,7 @@
         <v>COMMAND_WINDOW_COVERINGCLOSE = {'cmd1':0x60 ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>A120</f>
         <v xml:space="preserve">Window Covering </v>
@@ -15001,7 +14994,7 @@
         <v>COMMAND_WINDOW_COVERINGSTOP = {'cmd1':0x60 ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>A121</f>
         <v xml:space="preserve">Window Covering </v>
@@ -15021,7 +15014,7 @@
         <v>COMMAND_WINDOW_COVERINGPROGRAM = {'cmd1':0x60 ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>'SD Device Commands'!A100</f>
         <v xml:space="preserve">Window Covering Position </v>
@@ -15035,7 +15028,7 @@
         <v>COMMAND_WINDOW_COVERING_POSITION = {'cmd1':0x61 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>'SD Device Commands'!A102</f>
         <v>Thermostat Temperature Up</v>
@@ -15052,7 +15045,7 @@
         <v>COMMAND_THERMOSTAT_TEMPERATURE_UP = {'cmd1':0x68 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>'SD Device Commands'!A103</f>
         <v xml:space="preserve">Thermostat Temperature Down </v>
@@ -15066,7 +15059,7 @@
         <v>COMMAND_THERMOSTAT_TEMPERATURE_DOWN = {'cmd1':0x69 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>'SD Device Commands'!A104</f>
         <v xml:space="preserve">Thermostat Get Zone Information </v>
@@ -15080,7 +15073,7 @@
         <v>COMMAND_THERMOSTAT_GET_ZONE_INFORMATION = {'cmd1':0x6A ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>'SD Device Commands'!A105</f>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15100,7 +15093,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLLOAD_INITIALIZATION_VALUES = {'cmd1':0x6B ,'cmd2':0x00}</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>A127</f>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15120,7 +15113,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLLOAD_EEPROM_FROM_RAM = {'cmd1':0x6B ,'cmd2':0x01 }</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" ref="A129:A150" si="11">A128</f>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15140,7 +15133,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLGET_THERMOSTAT_MODE = {'cmd1':0x6B ,'cmd2':0x02}</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15160,7 +15153,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLGET_AMBIENT_TEMPERATURE = {'cmd1':0x6B ,'cmd2':0x03}</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15181,7 +15174,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLON_HEAT = {'cmd1':0x6B ,'cmd2':0x04}</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15201,7 +15194,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLON_COOL = {'cmd1':0x6B ,'cmd2':0x05}</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15221,7 +15214,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLON_AUTO = {'cmd1':0x6B ,'cmd2':0x06}</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15241,7 +15234,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLON_FAN = {'cmd1':0x6B ,'cmd2':0x07}</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15261,7 +15254,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLOFF_FAN = {'cmd1':0x6B ,'cmd2':0x08}</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15281,7 +15274,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLOFF_ALL = {'cmd1':0x6B ,'cmd2':0x09}</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15301,7 +15294,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLPROGRAM_HEAT = {'cmd1':0x6B ,'cmd2':0x0A}</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15321,7 +15314,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLPROGRAM_COOL = {'cmd1':0x6B ,'cmd2':0x0B}</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15341,7 +15334,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLPROGRAM_AUTO = {'cmd1':0x6B ,'cmd2':0x0C}</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15362,7 +15355,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLGET_EQUIPMENT_STATE = {'cmd1':0x6B ,'cmd2':0x0D }</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15382,7 +15375,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLSET_EQUIPMENT_STATE = {'cmd1':0x6B ,'cmd2':0x0E}</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15402,7 +15395,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLGET_TEMPERATURE_UNITS = {'cmd1':0x6B ,'cmd2':0x0F}</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15422,7 +15415,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLSET_FAHRENHEIT = {'cmd1':0x6B ,'cmd2':0x10}</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15442,7 +15435,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLSET_CELSIUS = {'cmd1':0x6B ,'cmd2':0x11}</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15462,7 +15455,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLGET_FAN_ON_SPEED = {'cmd1':0x6B ,'cmd2':0x12}</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15482,7 +15475,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLSET_FAN_ON_SPEED_LOW = {'cmd1':0x6B ,'cmd2':0x13}</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15502,7 +15495,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLSET_FAN_ON_SPEED_MEDIUM = {'cmd1':0x6B ,'cmd2':0x14}</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15522,7 +15515,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLSET_FAN_ON_SPEED_HIGH = {'cmd1':0x6B ,'cmd2':0x15}</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15542,7 +15535,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLENABLE_STATUS_CHANGE_MESSAGE = {'cmd1':0x6B ,'cmd2':0x16}</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">Thermostat Control </v>
@@ -15562,7 +15555,7 @@
         <v>COMMAND_THERMOSTAT_CONTROLDISABLE_STATUS_CHANGE_MESSAGE = {'cmd1':0x6B ,'cmd2':0x17}</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>'SD Device Commands'!A112</f>
         <v xml:space="preserve">Thermostat Set Cool Setpoint </v>
@@ -15576,7 +15569,7 @@
         <v>COMMAND_THERMOSTAT_SET_COOL_SETPOINT = {'cmd1':0x6C ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>'SD Device Commands'!A113</f>
         <v xml:space="preserve">Thermostat Set Heat Setpoint </v>
@@ -15590,7 +15583,7 @@
         <v>COMMAND_THERMOSTAT_SET_HEAT_SETPOINT = {'cmd1':0x6D ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>'SD Device Commands'!A115</f>
         <v xml:space="preserve">Leak Detector Announce </v>
@@ -15604,7 +15597,7 @@
         <v>COMMAND_LEAK_DETECTOR_ANNOUNCE = {'cmd1':0X70 ,'cmd2':None}</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>'SD Device Commands'!A118</f>
         <v xml:space="preserve">Assign to Companion Group </v>
@@ -15629,34 +15622,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" style="286" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.265625" style="212" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="212" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="212" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="212" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="286" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="212" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="212" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="212" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="212" customWidth="1"/>
     <col min="6" max="19" width="13" style="208" customWidth="1"/>
     <col min="20" max="20" width="53" style="209" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="210" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="50.3984375" style="210" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.1328125" style="210" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="34.1328125" style="210" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1328125" style="210"/>
-    <col min="27" max="27" width="93.59765625" style="210" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.265625" style="210" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.1328125" style="210"/>
+    <col min="22" max="22" width="50.42578125" style="210" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.140625" style="210" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="34.140625" style="210" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="210"/>
+    <col min="27" max="27" width="93.5703125" style="210" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.28515625" style="210" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="278" t="s">
         <v>494</v>
       </c>
@@ -15718,7 +15710,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="279" t="s">
         <v>128</v>
       </c>
@@ -15752,7 +15744,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="279" t="s">
         <v>128</v>
       </c>
@@ -15786,7 +15778,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="279" t="s">
         <v>128</v>
       </c>
@@ -15820,7 +15812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="111.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="277" t="s">
         <v>139</v>
       </c>
@@ -15860,19 +15852,19 @@
       <c r="M5" s="216" t="s">
         <v>543</v>
       </c>
-      <c r="N5" s="313" t="s">
+      <c r="N5" s="304" t="s">
         <v>607</v>
       </c>
-      <c r="O5" s="313"/>
-      <c r="P5" s="313"/>
-      <c r="Q5" s="313"/>
-      <c r="R5" s="313"/>
-      <c r="S5" s="314"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="304"/>
+      <c r="Q5" s="304"/>
+      <c r="R5" s="304"/>
+      <c r="S5" s="305"/>
       <c r="T5" s="213" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="277" t="s">
         <v>142</v>
       </c>
@@ -15888,29 +15880,29 @@
       <c r="E6" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="315" t="s">
+      <c r="F6" s="306" t="s">
         <v>610</v>
       </c>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313" t="s">
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="304"/>
+      <c r="L6" s="304"/>
+      <c r="M6" s="304"/>
+      <c r="N6" s="304" t="s">
         <v>607</v>
       </c>
-      <c r="O6" s="313"/>
-      <c r="P6" s="313"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="314"/>
+      <c r="O6" s="304"/>
+      <c r="P6" s="304"/>
+      <c r="Q6" s="304"/>
+      <c r="R6" s="304"/>
+      <c r="S6" s="305"/>
       <c r="T6" s="213" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="277" t="s">
         <v>545</v>
       </c>
@@ -15926,25 +15918,25 @@
       <c r="E7" s="214" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="315" t="s">
+      <c r="F7" s="306" t="s">
         <v>611</v>
       </c>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="313"/>
-      <c r="O7" s="313"/>
-      <c r="P7" s="313"/>
-      <c r="Q7" s="313"/>
-      <c r="R7" s="313"/>
-      <c r="S7" s="314"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="304"/>
+      <c r="I7" s="304"/>
+      <c r="J7" s="304"/>
+      <c r="K7" s="304"/>
+      <c r="L7" s="304"/>
+      <c r="M7" s="304"/>
+      <c r="N7" s="304"/>
+      <c r="O7" s="304"/>
+      <c r="P7" s="304"/>
+      <c r="Q7" s="304"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="305"/>
       <c r="T7" s="213"/>
     </row>
-    <row r="8" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="277" t="s">
         <v>495</v>
       </c>
@@ -15960,25 +15952,25 @@
       <c r="E8" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="315" t="s">
+      <c r="F8" s="306" t="s">
         <v>611</v>
       </c>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="313"/>
-      <c r="N8" s="313"/>
-      <c r="O8" s="313"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="313"/>
-      <c r="R8" s="313"/>
-      <c r="S8" s="314"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="304"/>
+      <c r="L8" s="304"/>
+      <c r="M8" s="304"/>
+      <c r="N8" s="304"/>
+      <c r="O8" s="304"/>
+      <c r="P8" s="304"/>
+      <c r="Q8" s="304"/>
+      <c r="R8" s="304"/>
+      <c r="S8" s="305"/>
       <c r="T8" s="213"/>
     </row>
-    <row r="9" spans="1:20" ht="132" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="277" t="s">
         <v>546</v>
       </c>
@@ -15997,28 +15989,28 @@
       <c r="F9" s="215" t="s">
         <v>612</v>
       </c>
-      <c r="G9" s="313" t="s">
+      <c r="G9" s="304" t="s">
         <v>613</v>
       </c>
-      <c r="H9" s="313"/>
+      <c r="H9" s="304"/>
       <c r="I9" s="216" t="s">
         <v>547</v>
       </c>
-      <c r="J9" s="313" t="s">
+      <c r="J9" s="304" t="s">
         <v>580</v>
       </c>
-      <c r="K9" s="313"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="313"/>
-      <c r="N9" s="313"/>
-      <c r="O9" s="313"/>
-      <c r="P9" s="313"/>
-      <c r="Q9" s="313"/>
-      <c r="R9" s="313"/>
-      <c r="S9" s="314"/>
+      <c r="K9" s="304"/>
+      <c r="L9" s="304"/>
+      <c r="M9" s="304"/>
+      <c r="N9" s="304"/>
+      <c r="O9" s="304"/>
+      <c r="P9" s="304"/>
+      <c r="Q9" s="304"/>
+      <c r="R9" s="304"/>
+      <c r="S9" s="305"/>
       <c r="T9" s="213"/>
     </row>
-    <row r="10" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="277" t="s">
         <v>496</v>
       </c>
@@ -16034,25 +16026,25 @@
       <c r="E10" s="214" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="315" t="s">
+      <c r="F10" s="306" t="s">
         <v>614</v>
       </c>
-      <c r="G10" s="313"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="313"/>
-      <c r="J10" s="313"/>
-      <c r="K10" s="313"/>
-      <c r="L10" s="313"/>
-      <c r="M10" s="313"/>
-      <c r="N10" s="313"/>
-      <c r="O10" s="313"/>
-      <c r="P10" s="313"/>
-      <c r="Q10" s="313"/>
-      <c r="R10" s="313"/>
-      <c r="S10" s="314"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="304"/>
+      <c r="K10" s="304"/>
+      <c r="L10" s="304"/>
+      <c r="M10" s="304"/>
+      <c r="N10" s="304"/>
+      <c r="O10" s="304"/>
+      <c r="P10" s="304"/>
+      <c r="Q10" s="304"/>
+      <c r="R10" s="304"/>
+      <c r="S10" s="305"/>
       <c r="T10" s="218"/>
     </row>
-    <row r="11" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="277" t="s">
         <v>497</v>
       </c>
@@ -16076,7 +16068,7 @@
       <c r="S11" s="217"/>
       <c r="T11" s="213"/>
     </row>
-    <row r="12" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="277" t="s">
         <v>498</v>
       </c>
@@ -16100,7 +16092,7 @@
       <c r="S12" s="217"/>
       <c r="T12" s="218"/>
     </row>
-    <row r="13" spans="1:20" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="279" t="s">
         <v>128</v>
       </c>
@@ -16134,7 +16126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="279" t="s">
         <v>128</v>
       </c>
@@ -16168,7 +16160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="280" t="s">
         <v>499</v>
       </c>
@@ -16190,25 +16182,25 @@
       <c r="G15" s="233" t="s">
         <v>616</v>
       </c>
-      <c r="H15" s="310" t="s">
+      <c r="H15" s="307" t="s">
         <v>608</v>
       </c>
-      <c r="I15" s="310"/>
-      <c r="J15" s="310"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
-      <c r="M15" s="310"/>
-      <c r="N15" s="310"/>
-      <c r="O15" s="310"/>
-      <c r="P15" s="310"/>
-      <c r="Q15" s="310"/>
-      <c r="R15" s="310"/>
-      <c r="S15" s="311"/>
+      <c r="I15" s="307"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="307"/>
+      <c r="M15" s="307"/>
+      <c r="N15" s="307"/>
+      <c r="O15" s="307"/>
+      <c r="P15" s="307"/>
+      <c r="Q15" s="307"/>
+      <c r="R15" s="307"/>
+      <c r="S15" s="308"/>
       <c r="T15" s="230" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A16" s="281" t="s">
         <v>499</v>
       </c>
@@ -16233,24 +16225,24 @@
       <c r="H16" s="236" t="s">
         <v>617</v>
       </c>
-      <c r="I16" s="304" t="s">
+      <c r="I16" s="309" t="s">
         <v>609</v>
       </c>
-      <c r="J16" s="304"/>
-      <c r="K16" s="304"/>
-      <c r="L16" s="304"/>
-      <c r="M16" s="304"/>
-      <c r="N16" s="304"/>
-      <c r="O16" s="304"/>
-      <c r="P16" s="304"/>
-      <c r="Q16" s="304"/>
-      <c r="R16" s="304"/>
-      <c r="S16" s="305"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="309"/>
+      <c r="L16" s="309"/>
+      <c r="M16" s="309"/>
+      <c r="N16" s="309"/>
+      <c r="O16" s="309"/>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="309"/>
+      <c r="R16" s="309"/>
+      <c r="S16" s="310"/>
       <c r="T16" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A17" s="281" t="s">
         <v>499</v>
       </c>
@@ -16272,27 +16264,27 @@
       <c r="G17" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H17" s="304" t="s">
+      <c r="H17" s="309" t="s">
         <v>618</v>
       </c>
-      <c r="I17" s="304"/>
-      <c r="J17" s="304" t="s">
+      <c r="I17" s="309"/>
+      <c r="J17" s="309" t="s">
         <v>580</v>
       </c>
-      <c r="K17" s="304"/>
-      <c r="L17" s="304"/>
-      <c r="M17" s="304"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="304"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="304"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="305"/>
+      <c r="K17" s="309"/>
+      <c r="L17" s="309"/>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="309"/>
+      <c r="P17" s="309"/>
+      <c r="Q17" s="309"/>
+      <c r="R17" s="309"/>
+      <c r="S17" s="310"/>
       <c r="T17" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A18" s="281" t="s">
         <v>499</v>
       </c>
@@ -16314,27 +16306,27 @@
       <c r="G18" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H18" s="304" t="s">
+      <c r="H18" s="309" t="s">
         <v>619</v>
       </c>
-      <c r="I18" s="304"/>
-      <c r="J18" s="304"/>
-      <c r="K18" s="304" t="s">
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309" t="s">
         <v>620</v>
       </c>
-      <c r="L18" s="304"/>
-      <c r="M18" s="304"/>
-      <c r="N18" s="304"/>
-      <c r="O18" s="304"/>
-      <c r="P18" s="304"/>
-      <c r="Q18" s="304"/>
-      <c r="R18" s="304"/>
-      <c r="S18" s="305"/>
+      <c r="L18" s="309"/>
+      <c r="M18" s="309"/>
+      <c r="N18" s="309"/>
+      <c r="O18" s="309"/>
+      <c r="P18" s="309"/>
+      <c r="Q18" s="309"/>
+      <c r="R18" s="309"/>
+      <c r="S18" s="310"/>
       <c r="T18" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A19" s="281" t="s">
         <v>499</v>
       </c>
@@ -16356,27 +16348,27 @@
       <c r="G19" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H19" s="304" t="s">
+      <c r="H19" s="309" t="s">
         <v>621</v>
       </c>
-      <c r="I19" s="304"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="304"/>
-      <c r="L19" s="304" t="s">
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="309" t="s">
         <v>587</v>
       </c>
-      <c r="M19" s="304"/>
-      <c r="N19" s="304"/>
-      <c r="O19" s="304"/>
-      <c r="P19" s="304"/>
-      <c r="Q19" s="304"/>
-      <c r="R19" s="304"/>
-      <c r="S19" s="305"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="309"/>
+      <c r="O19" s="309"/>
+      <c r="P19" s="309"/>
+      <c r="Q19" s="309"/>
+      <c r="R19" s="309"/>
+      <c r="S19" s="310"/>
       <c r="T19" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A20" s="281" t="s">
         <v>499</v>
       </c>
@@ -16398,27 +16390,27 @@
       <c r="G20" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H20" s="304" t="s">
+      <c r="H20" s="309" t="s">
         <v>622</v>
       </c>
-      <c r="I20" s="304"/>
-      <c r="J20" s="304"/>
-      <c r="K20" s="304"/>
-      <c r="L20" s="304"/>
-      <c r="M20" s="304" t="s">
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="309"/>
+      <c r="L20" s="309"/>
+      <c r="M20" s="309" t="s">
         <v>623</v>
       </c>
-      <c r="N20" s="304"/>
-      <c r="O20" s="304"/>
-      <c r="P20" s="304"/>
-      <c r="Q20" s="304"/>
-      <c r="R20" s="304"/>
-      <c r="S20" s="305"/>
+      <c r="N20" s="309"/>
+      <c r="O20" s="309"/>
+      <c r="P20" s="309"/>
+      <c r="Q20" s="309"/>
+      <c r="R20" s="309"/>
+      <c r="S20" s="310"/>
       <c r="T20" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A21" s="281" t="s">
         <v>499</v>
       </c>
@@ -16440,27 +16432,27 @@
       <c r="G21" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H21" s="304" t="s">
+      <c r="H21" s="309" t="s">
         <v>624</v>
       </c>
-      <c r="I21" s="304"/>
-      <c r="J21" s="304"/>
-      <c r="K21" s="304"/>
-      <c r="L21" s="304"/>
-      <c r="M21" s="304"/>
-      <c r="N21" s="304" t="s">
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="309"/>
+      <c r="L21" s="309"/>
+      <c r="M21" s="309"/>
+      <c r="N21" s="309" t="s">
         <v>625</v>
       </c>
-      <c r="O21" s="304"/>
-      <c r="P21" s="304"/>
-      <c r="Q21" s="304"/>
-      <c r="R21" s="304"/>
-      <c r="S21" s="305"/>
+      <c r="O21" s="309"/>
+      <c r="P21" s="309"/>
+      <c r="Q21" s="309"/>
+      <c r="R21" s="309"/>
+      <c r="S21" s="310"/>
       <c r="T21" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="281" t="s">
         <v>499</v>
       </c>
@@ -16482,27 +16474,27 @@
       <c r="G22" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H22" s="304" t="s">
+      <c r="H22" s="309" t="s">
         <v>626</v>
       </c>
-      <c r="I22" s="304"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="304"/>
-      <c r="L22" s="304"/>
-      <c r="M22" s="304"/>
-      <c r="N22" s="304"/>
-      <c r="O22" s="304" t="s">
+      <c r="I22" s="309"/>
+      <c r="J22" s="309"/>
+      <c r="K22" s="309"/>
+      <c r="L22" s="309"/>
+      <c r="M22" s="309"/>
+      <c r="N22" s="309"/>
+      <c r="O22" s="309" t="s">
         <v>627</v>
       </c>
-      <c r="P22" s="304"/>
-      <c r="Q22" s="304"/>
-      <c r="R22" s="304"/>
-      <c r="S22" s="305"/>
+      <c r="P22" s="309"/>
+      <c r="Q22" s="309"/>
+      <c r="R22" s="309"/>
+      <c r="S22" s="310"/>
       <c r="T22" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A23" s="281" t="s">
         <v>499</v>
       </c>
@@ -16527,24 +16519,24 @@
       <c r="H23" s="236" t="s">
         <v>628</v>
       </c>
-      <c r="I23" s="304" t="s">
+      <c r="I23" s="309" t="s">
         <v>629</v>
       </c>
-      <c r="J23" s="304"/>
-      <c r="K23" s="304"/>
-      <c r="L23" s="304"/>
-      <c r="M23" s="304"/>
-      <c r="N23" s="304"/>
-      <c r="O23" s="304"/>
-      <c r="P23" s="304"/>
-      <c r="Q23" s="304"/>
-      <c r="R23" s="304"/>
-      <c r="S23" s="305"/>
+      <c r="J23" s="309"/>
+      <c r="K23" s="309"/>
+      <c r="L23" s="309"/>
+      <c r="M23" s="309"/>
+      <c r="N23" s="309"/>
+      <c r="O23" s="309"/>
+      <c r="P23" s="309"/>
+      <c r="Q23" s="309"/>
+      <c r="R23" s="309"/>
+      <c r="S23" s="310"/>
       <c r="T23" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A24" s="281" t="s">
         <v>499</v>
       </c>
@@ -16566,27 +16558,27 @@
       <c r="G24" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H24" s="304" t="s">
+      <c r="H24" s="309" t="s">
         <v>630</v>
       </c>
-      <c r="I24" s="304"/>
-      <c r="J24" s="304"/>
-      <c r="K24" s="304"/>
-      <c r="L24" s="304"/>
-      <c r="M24" s="304"/>
-      <c r="N24" s="304"/>
-      <c r="O24" s="304"/>
-      <c r="P24" s="304"/>
-      <c r="Q24" s="304" t="s">
+      <c r="I24" s="309"/>
+      <c r="J24" s="309"/>
+      <c r="K24" s="309"/>
+      <c r="L24" s="309"/>
+      <c r="M24" s="309"/>
+      <c r="N24" s="309"/>
+      <c r="O24" s="309"/>
+      <c r="P24" s="309"/>
+      <c r="Q24" s="309" t="s">
         <v>631</v>
       </c>
-      <c r="R24" s="304"/>
-      <c r="S24" s="305"/>
+      <c r="R24" s="309"/>
+      <c r="S24" s="310"/>
       <c r="T24" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A25" s="281" t="s">
         <v>499</v>
       </c>
@@ -16608,27 +16600,27 @@
       <c r="G25" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H25" s="304" t="s">
+      <c r="H25" s="309" t="s">
         <v>632</v>
       </c>
-      <c r="I25" s="304"/>
-      <c r="J25" s="304"/>
-      <c r="K25" s="304"/>
-      <c r="L25" s="304"/>
-      <c r="M25" s="304"/>
-      <c r="N25" s="304"/>
-      <c r="O25" s="304"/>
-      <c r="P25" s="304"/>
-      <c r="Q25" s="304"/>
-      <c r="R25" s="304" t="s">
+      <c r="I25" s="309"/>
+      <c r="J25" s="309"/>
+      <c r="K25" s="309"/>
+      <c r="L25" s="309"/>
+      <c r="M25" s="309"/>
+      <c r="N25" s="309"/>
+      <c r="O25" s="309"/>
+      <c r="P25" s="309"/>
+      <c r="Q25" s="309"/>
+      <c r="R25" s="309" t="s">
         <v>567</v>
       </c>
-      <c r="S25" s="305"/>
+      <c r="S25" s="310"/>
       <c r="T25" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A26" s="281" t="s">
         <v>499</v>
       </c>
@@ -16650,25 +16642,25 @@
       <c r="G26" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H26" s="304" t="s">
+      <c r="H26" s="309" t="s">
         <v>633</v>
       </c>
-      <c r="I26" s="304"/>
-      <c r="J26" s="304"/>
-      <c r="K26" s="304"/>
-      <c r="L26" s="304"/>
-      <c r="M26" s="304"/>
-      <c r="N26" s="304"/>
-      <c r="O26" s="304"/>
-      <c r="P26" s="304"/>
-      <c r="Q26" s="304"/>
-      <c r="R26" s="304"/>
-      <c r="S26" s="305"/>
+      <c r="I26" s="309"/>
+      <c r="J26" s="309"/>
+      <c r="K26" s="309"/>
+      <c r="L26" s="309"/>
+      <c r="M26" s="309"/>
+      <c r="N26" s="309"/>
+      <c r="O26" s="309"/>
+      <c r="P26" s="309"/>
+      <c r="Q26" s="309"/>
+      <c r="R26" s="309"/>
+      <c r="S26" s="310"/>
       <c r="T26" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A27" s="281" t="s">
         <v>499</v>
       </c>
@@ -16690,25 +16682,25 @@
       <c r="G27" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H27" s="304" t="s">
+      <c r="H27" s="309" t="s">
         <v>634</v>
       </c>
-      <c r="I27" s="304"/>
-      <c r="J27" s="304"/>
-      <c r="K27" s="304"/>
-      <c r="L27" s="304"/>
-      <c r="M27" s="304"/>
-      <c r="N27" s="304"/>
-      <c r="O27" s="304"/>
-      <c r="P27" s="304"/>
-      <c r="Q27" s="304"/>
-      <c r="R27" s="304"/>
-      <c r="S27" s="305"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="309"/>
+      <c r="K27" s="309"/>
+      <c r="L27" s="309"/>
+      <c r="M27" s="309"/>
+      <c r="N27" s="309"/>
+      <c r="O27" s="309"/>
+      <c r="P27" s="309"/>
+      <c r="Q27" s="309"/>
+      <c r="R27" s="309"/>
+      <c r="S27" s="310"/>
       <c r="T27" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="61.15" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A28" s="281" t="s">
         <v>499</v>
       </c>
@@ -16730,25 +16722,25 @@
       <c r="G28" s="236" t="s">
         <v>616</v>
       </c>
-      <c r="H28" s="304" t="s">
+      <c r="H28" s="309" t="s">
         <v>635</v>
       </c>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
-      <c r="K28" s="304"/>
-      <c r="L28" s="304"/>
-      <c r="M28" s="304"/>
-      <c r="N28" s="304"/>
-      <c r="O28" s="304"/>
-      <c r="P28" s="304"/>
-      <c r="Q28" s="304"/>
-      <c r="R28" s="304"/>
-      <c r="S28" s="305"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="309"/>
+      <c r="L28" s="309"/>
+      <c r="M28" s="309"/>
+      <c r="N28" s="309"/>
+      <c r="O28" s="309"/>
+      <c r="P28" s="309"/>
+      <c r="Q28" s="309"/>
+      <c r="R28" s="309"/>
+      <c r="S28" s="310"/>
       <c r="T28" s="237" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="33.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="281" t="s">
         <v>499</v>
       </c>
@@ -16782,7 +16774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="282" t="s">
         <v>499</v>
       </c>
@@ -16825,18 +16817,18 @@
       <c r="N30" s="241" t="s">
         <v>642</v>
       </c>
-      <c r="O30" s="316" t="s">
+      <c r="O30" s="311" t="s">
         <v>627</v>
       </c>
-      <c r="P30" s="316"/>
-      <c r="Q30" s="316"/>
-      <c r="R30" s="316"/>
-      <c r="S30" s="317"/>
+      <c r="P30" s="311"/>
+      <c r="Q30" s="311"/>
+      <c r="R30" s="311"/>
+      <c r="S30" s="312"/>
       <c r="T30" s="242" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="279" t="s">
         <v>128</v>
       </c>
@@ -16868,7 +16860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A32" s="280" t="s">
         <v>562</v>
       </c>
@@ -16890,23 +16882,23 @@
       <c r="G32" s="244" t="s">
         <v>564</v>
       </c>
-      <c r="H32" s="318" t="s">
+      <c r="H32" s="313" t="s">
         <v>608</v>
       </c>
-      <c r="I32" s="318"/>
-      <c r="J32" s="318"/>
-      <c r="K32" s="318"/>
-      <c r="L32" s="318"/>
-      <c r="M32" s="318"/>
-      <c r="N32" s="318"/>
-      <c r="O32" s="318"/>
-      <c r="P32" s="318"/>
-      <c r="Q32" s="318"/>
-      <c r="R32" s="318"/>
-      <c r="S32" s="319"/>
+      <c r="I32" s="313"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="313"/>
+      <c r="L32" s="313"/>
+      <c r="M32" s="313"/>
+      <c r="N32" s="313"/>
+      <c r="O32" s="313"/>
+      <c r="P32" s="313"/>
+      <c r="Q32" s="313"/>
+      <c r="R32" s="313"/>
+      <c r="S32" s="314"/>
       <c r="T32" s="245"/>
     </row>
-    <row r="33" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A33" s="281" t="s">
         <v>562</v>
       </c>
@@ -16958,13 +16950,13 @@
       <c r="Q33" s="247" t="s">
         <v>577</v>
       </c>
-      <c r="R33" s="320" t="s">
+      <c r="R33" s="315" t="s">
         <v>567</v>
       </c>
-      <c r="S33" s="321"/>
+      <c r="S33" s="316"/>
       <c r="T33" s="248"/>
     </row>
-    <row r="34" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="281" t="s">
         <v>562</v>
       </c>
@@ -17000,7 +16992,7 @@
       <c r="S34" s="249"/>
       <c r="T34" s="248"/>
     </row>
-    <row r="35" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="281" t="s">
         <v>562</v>
       </c>
@@ -17028,21 +17020,21 @@
       <c r="I35" s="247" t="s">
         <v>579</v>
       </c>
-      <c r="J35" s="320" t="s">
+      <c r="J35" s="315" t="s">
         <v>580</v>
       </c>
-      <c r="K35" s="320"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
-      <c r="N35" s="320"/>
-      <c r="O35" s="320"/>
-      <c r="P35" s="320"/>
-      <c r="Q35" s="320"/>
-      <c r="R35" s="320"/>
-      <c r="S35" s="321"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="315"/>
+      <c r="M35" s="315"/>
+      <c r="N35" s="315"/>
+      <c r="O35" s="315"/>
+      <c r="P35" s="315"/>
+      <c r="Q35" s="315"/>
+      <c r="R35" s="315"/>
+      <c r="S35" s="316"/>
       <c r="T35" s="248"/>
     </row>
-    <row r="36" spans="1:20" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="281" t="s">
         <v>562</v>
       </c>
@@ -17078,7 +17070,7 @@
       <c r="S36" s="255"/>
       <c r="T36" s="256"/>
     </row>
-    <row r="37" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A37" s="283" t="s">
         <v>583</v>
       </c>
@@ -17100,23 +17092,23 @@
       <c r="G37" s="233" t="s">
         <v>564</v>
       </c>
-      <c r="H37" s="310" t="s">
+      <c r="H37" s="307" t="s">
         <v>608</v>
       </c>
-      <c r="I37" s="310"/>
-      <c r="J37" s="310"/>
-      <c r="K37" s="310"/>
-      <c r="L37" s="310"/>
-      <c r="M37" s="310"/>
-      <c r="N37" s="310"/>
-      <c r="O37" s="310"/>
-      <c r="P37" s="310"/>
-      <c r="Q37" s="310"/>
-      <c r="R37" s="310"/>
-      <c r="S37" s="311"/>
+      <c r="I37" s="307"/>
+      <c r="J37" s="307"/>
+      <c r="K37" s="307"/>
+      <c r="L37" s="307"/>
+      <c r="M37" s="307"/>
+      <c r="N37" s="307"/>
+      <c r="O37" s="307"/>
+      <c r="P37" s="307"/>
+      <c r="Q37" s="307"/>
+      <c r="R37" s="307"/>
+      <c r="S37" s="308"/>
       <c r="T37" s="258"/>
     </row>
-    <row r="38" spans="1:20" ht="131.65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A38" s="281" t="s">
         <v>583</v>
       </c>
@@ -17150,22 +17142,22 @@
       <c r="K38" s="236" t="s">
         <v>647</v>
       </c>
-      <c r="L38" s="304" t="s">
+      <c r="L38" s="309" t="s">
         <v>587</v>
       </c>
-      <c r="M38" s="304"/>
-      <c r="N38" s="304"/>
-      <c r="O38" s="304"/>
-      <c r="P38" s="304"/>
-      <c r="Q38" s="304"/>
-      <c r="R38" s="304"/>
-      <c r="S38" s="305"/>
+      <c r="M38" s="309"/>
+      <c r="N38" s="309"/>
+      <c r="O38" s="309"/>
+      <c r="P38" s="309"/>
+      <c r="Q38" s="309"/>
+      <c r="R38" s="309"/>
+      <c r="S38" s="310"/>
       <c r="T38" s="237" t="str">
         <f>_xlfn.CONCAT(T39:T40)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="30.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="281" t="s">
         <v>583</v>
       </c>
@@ -17190,22 +17182,22 @@
       <c r="H39" s="236" t="s">
         <v>584</v>
       </c>
-      <c r="I39" s="304" t="s">
+      <c r="I39" s="309" t="s">
         <v>609</v>
       </c>
-      <c r="J39" s="304"/>
-      <c r="K39" s="304"/>
-      <c r="L39" s="304"/>
-      <c r="M39" s="304"/>
-      <c r="N39" s="304"/>
-      <c r="O39" s="304"/>
-      <c r="P39" s="304"/>
-      <c r="Q39" s="304"/>
-      <c r="R39" s="304"/>
-      <c r="S39" s="305"/>
+      <c r="J39" s="309"/>
+      <c r="K39" s="309"/>
+      <c r="L39" s="309"/>
+      <c r="M39" s="309"/>
+      <c r="N39" s="309"/>
+      <c r="O39" s="309"/>
+      <c r="P39" s="309"/>
+      <c r="Q39" s="309"/>
+      <c r="R39" s="309"/>
+      <c r="S39" s="310"/>
       <c r="T39" s="237"/>
     </row>
-    <row r="40" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A40" s="281" t="s">
         <v>583</v>
       </c>
@@ -17230,22 +17222,22 @@
       <c r="H40" s="236" t="s">
         <v>590</v>
       </c>
-      <c r="I40" s="304" t="s">
+      <c r="I40" s="309" t="s">
         <v>609</v>
       </c>
-      <c r="J40" s="304"/>
-      <c r="K40" s="304"/>
-      <c r="L40" s="304"/>
-      <c r="M40" s="304"/>
-      <c r="N40" s="304"/>
-      <c r="O40" s="304"/>
-      <c r="P40" s="304"/>
-      <c r="Q40" s="304"/>
-      <c r="R40" s="304"/>
-      <c r="S40" s="305"/>
+      <c r="J40" s="309"/>
+      <c r="K40" s="309"/>
+      <c r="L40" s="309"/>
+      <c r="M40" s="309"/>
+      <c r="N40" s="309"/>
+      <c r="O40" s="309"/>
+      <c r="P40" s="309"/>
+      <c r="Q40" s="309"/>
+      <c r="R40" s="309"/>
+      <c r="S40" s="310"/>
       <c r="T40" s="237"/>
     </row>
-    <row r="41" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A41" s="281" t="s">
         <v>583</v>
       </c>
@@ -17270,22 +17262,22 @@
       <c r="H41" s="236" t="s">
         <v>592</v>
       </c>
-      <c r="I41" s="304" t="s">
+      <c r="I41" s="309" t="s">
         <v>609</v>
       </c>
-      <c r="J41" s="304"/>
-      <c r="K41" s="304"/>
-      <c r="L41" s="304"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="304"/>
-      <c r="O41" s="304"/>
-      <c r="P41" s="304"/>
-      <c r="Q41" s="304"/>
-      <c r="R41" s="304"/>
-      <c r="S41" s="305"/>
+      <c r="J41" s="309"/>
+      <c r="K41" s="309"/>
+      <c r="L41" s="309"/>
+      <c r="M41" s="309"/>
+      <c r="N41" s="309"/>
+      <c r="O41" s="309"/>
+      <c r="P41" s="309"/>
+      <c r="Q41" s="309"/>
+      <c r="R41" s="309"/>
+      <c r="S41" s="310"/>
       <c r="T41" s="259"/>
     </row>
-    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="281" t="s">
         <v>583</v>
       </c>
@@ -17310,22 +17302,22 @@
       <c r="H42" s="236" t="s">
         <v>594</v>
       </c>
-      <c r="I42" s="304" t="s">
+      <c r="I42" s="309" t="s">
         <v>609</v>
       </c>
-      <c r="J42" s="304"/>
-      <c r="K42" s="304"/>
-      <c r="L42" s="304"/>
-      <c r="M42" s="304"/>
-      <c r="N42" s="304"/>
-      <c r="O42" s="304"/>
-      <c r="P42" s="304"/>
-      <c r="Q42" s="304"/>
-      <c r="R42" s="304"/>
-      <c r="S42" s="305"/>
+      <c r="J42" s="309"/>
+      <c r="K42" s="309"/>
+      <c r="L42" s="309"/>
+      <c r="M42" s="309"/>
+      <c r="N42" s="309"/>
+      <c r="O42" s="309"/>
+      <c r="P42" s="309"/>
+      <c r="Q42" s="309"/>
+      <c r="R42" s="309"/>
+      <c r="S42" s="310"/>
       <c r="T42" s="260"/>
     </row>
-    <row r="43" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="282" t="s">
         <v>583</v>
       </c>
@@ -17361,7 +17353,7 @@
       <c r="S43" s="261"/>
       <c r="T43" s="242"/>
     </row>
-    <row r="44" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A44" s="280" t="s">
         <v>684</v>
       </c>
@@ -17383,23 +17375,23 @@
       <c r="G44" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="H44" s="310" t="s">
+      <c r="H44" s="307" t="s">
         <v>608</v>
       </c>
-      <c r="I44" s="310"/>
-      <c r="J44" s="310"/>
-      <c r="K44" s="310"/>
-      <c r="L44" s="310"/>
-      <c r="M44" s="310"/>
-      <c r="N44" s="310"/>
-      <c r="O44" s="310"/>
-      <c r="P44" s="310"/>
-      <c r="Q44" s="310"/>
-      <c r="R44" s="310"/>
-      <c r="S44" s="311"/>
+      <c r="I44" s="307"/>
+      <c r="J44" s="307"/>
+      <c r="K44" s="307"/>
+      <c r="L44" s="307"/>
+      <c r="M44" s="307"/>
+      <c r="N44" s="307"/>
+      <c r="O44" s="307"/>
+      <c r="P44" s="307"/>
+      <c r="Q44" s="307"/>
+      <c r="R44" s="307"/>
+      <c r="S44" s="308"/>
       <c r="T44" s="258"/>
     </row>
-    <row r="45" spans="1:20" ht="111.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="281" t="s">
         <v>684</v>
       </c>
@@ -17459,7 +17451,7 @@
       </c>
       <c r="T45" s="237"/>
     </row>
-    <row r="46" spans="1:20" ht="70.900000000000006" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A46" s="281" t="s">
         <v>684</v>
       </c>
@@ -17484,22 +17476,22 @@
       <c r="H46" s="236" t="s">
         <v>650</v>
       </c>
-      <c r="I46" s="304" t="s">
+      <c r="I46" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J46" s="304"/>
-      <c r="K46" s="304"/>
-      <c r="L46" s="304"/>
-      <c r="M46" s="304"/>
-      <c r="N46" s="304"/>
-      <c r="O46" s="304"/>
-      <c r="P46" s="304"/>
-      <c r="Q46" s="304"/>
-      <c r="R46" s="304"/>
-      <c r="S46" s="305"/>
+      <c r="J46" s="309"/>
+      <c r="K46" s="309"/>
+      <c r="L46" s="309"/>
+      <c r="M46" s="309"/>
+      <c r="N46" s="309"/>
+      <c r="O46" s="309"/>
+      <c r="P46" s="309"/>
+      <c r="Q46" s="309"/>
+      <c r="R46" s="309"/>
+      <c r="S46" s="310"/>
       <c r="T46" s="237"/>
     </row>
-    <row r="47" spans="1:20" ht="91.15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A47" s="281" t="s">
         <v>684</v>
       </c>
@@ -17524,22 +17516,22 @@
       <c r="H47" s="236" t="s">
         <v>662</v>
       </c>
-      <c r="I47" s="304" t="s">
+      <c r="I47" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J47" s="304"/>
-      <c r="K47" s="304"/>
-      <c r="L47" s="304"/>
-      <c r="M47" s="304"/>
-      <c r="N47" s="304"/>
-      <c r="O47" s="304"/>
-      <c r="P47" s="304"/>
-      <c r="Q47" s="304"/>
-      <c r="R47" s="304"/>
-      <c r="S47" s="305"/>
+      <c r="J47" s="309"/>
+      <c r="K47" s="309"/>
+      <c r="L47" s="309"/>
+      <c r="M47" s="309"/>
+      <c r="N47" s="309"/>
+      <c r="O47" s="309"/>
+      <c r="P47" s="309"/>
+      <c r="Q47" s="309"/>
+      <c r="R47" s="309"/>
+      <c r="S47" s="310"/>
       <c r="T47" s="237"/>
     </row>
-    <row r="48" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A48" s="281" t="s">
         <v>684</v>
       </c>
@@ -17567,21 +17559,21 @@
       <c r="I48" s="236" t="s">
         <v>661</v>
       </c>
-      <c r="J48" s="304" t="s">
+      <c r="J48" s="309" t="s">
         <v>580</v>
       </c>
-      <c r="K48" s="304"/>
-      <c r="L48" s="304"/>
-      <c r="M48" s="304"/>
-      <c r="N48" s="304"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="304"/>
-      <c r="Q48" s="304"/>
-      <c r="R48" s="304"/>
-      <c r="S48" s="305"/>
+      <c r="K48" s="309"/>
+      <c r="L48" s="309"/>
+      <c r="M48" s="309"/>
+      <c r="N48" s="309"/>
+      <c r="O48" s="309"/>
+      <c r="P48" s="309"/>
+      <c r="Q48" s="309"/>
+      <c r="R48" s="309"/>
+      <c r="S48" s="310"/>
       <c r="T48" s="260"/>
     </row>
-    <row r="49" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A49" s="281" t="s">
         <v>684</v>
       </c>
@@ -17606,22 +17598,22 @@
       <c r="H49" s="236" t="s">
         <v>713</v>
       </c>
-      <c r="I49" s="304" t="s">
+      <c r="I49" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J49" s="304"/>
-      <c r="K49" s="304"/>
-      <c r="L49" s="304"/>
-      <c r="M49" s="304"/>
-      <c r="N49" s="304"/>
-      <c r="O49" s="304"/>
-      <c r="P49" s="304"/>
-      <c r="Q49" s="304"/>
-      <c r="R49" s="304"/>
-      <c r="S49" s="305"/>
+      <c r="J49" s="309"/>
+      <c r="K49" s="309"/>
+      <c r="L49" s="309"/>
+      <c r="M49" s="309"/>
+      <c r="N49" s="309"/>
+      <c r="O49" s="309"/>
+      <c r="P49" s="309"/>
+      <c r="Q49" s="309"/>
+      <c r="R49" s="309"/>
+      <c r="S49" s="310"/>
       <c r="T49" s="260"/>
     </row>
-    <row r="50" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A50" s="281" t="s">
         <v>684</v>
       </c>
@@ -17646,22 +17638,22 @@
       <c r="H50" s="236" t="s">
         <v>715</v>
       </c>
-      <c r="I50" s="304" t="s">
+      <c r="I50" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J50" s="304"/>
-      <c r="K50" s="304"/>
-      <c r="L50" s="304"/>
-      <c r="M50" s="304"/>
-      <c r="N50" s="304"/>
-      <c r="O50" s="304"/>
-      <c r="P50" s="304"/>
-      <c r="Q50" s="304"/>
-      <c r="R50" s="304"/>
-      <c r="S50" s="305"/>
+      <c r="J50" s="309"/>
+      <c r="K50" s="309"/>
+      <c r="L50" s="309"/>
+      <c r="M50" s="309"/>
+      <c r="N50" s="309"/>
+      <c r="O50" s="309"/>
+      <c r="P50" s="309"/>
+      <c r="Q50" s="309"/>
+      <c r="R50" s="309"/>
+      <c r="S50" s="310"/>
       <c r="T50" s="237"/>
     </row>
-    <row r="51" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A51" s="281" t="s">
         <v>684</v>
       </c>
@@ -17686,22 +17678,22 @@
       <c r="H51" s="236" t="s">
         <v>659</v>
       </c>
-      <c r="I51" s="304" t="s">
+      <c r="I51" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J51" s="304"/>
-      <c r="K51" s="304"/>
-      <c r="L51" s="304"/>
-      <c r="M51" s="304"/>
-      <c r="N51" s="304"/>
-      <c r="O51" s="304"/>
-      <c r="P51" s="304"/>
-      <c r="Q51" s="304"/>
-      <c r="R51" s="304"/>
-      <c r="S51" s="305"/>
+      <c r="J51" s="309"/>
+      <c r="K51" s="309"/>
+      <c r="L51" s="309"/>
+      <c r="M51" s="309"/>
+      <c r="N51" s="309"/>
+      <c r="O51" s="309"/>
+      <c r="P51" s="309"/>
+      <c r="Q51" s="309"/>
+      <c r="R51" s="309"/>
+      <c r="S51" s="310"/>
       <c r="T51" s="237"/>
     </row>
-    <row r="52" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A52" s="281" t="s">
         <v>684</v>
       </c>
@@ -17726,22 +17718,22 @@
       <c r="H52" s="236" t="s">
         <v>658</v>
       </c>
-      <c r="I52" s="304" t="s">
+      <c r="I52" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J52" s="304"/>
-      <c r="K52" s="304"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="304"/>
-      <c r="N52" s="304"/>
-      <c r="O52" s="304"/>
-      <c r="P52" s="304"/>
-      <c r="Q52" s="304"/>
-      <c r="R52" s="304"/>
-      <c r="S52" s="305"/>
+      <c r="J52" s="309"/>
+      <c r="K52" s="309"/>
+      <c r="L52" s="309"/>
+      <c r="M52" s="309"/>
+      <c r="N52" s="309"/>
+      <c r="O52" s="309"/>
+      <c r="P52" s="309"/>
+      <c r="Q52" s="309"/>
+      <c r="R52" s="309"/>
+      <c r="S52" s="310"/>
       <c r="T52" s="237"/>
     </row>
-    <row r="53" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A53" s="281" t="s">
         <v>684</v>
       </c>
@@ -17766,22 +17758,22 @@
       <c r="H53" s="236" t="s">
         <v>657</v>
       </c>
-      <c r="I53" s="304" t="s">
+      <c r="I53" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J53" s="304"/>
-      <c r="K53" s="304"/>
-      <c r="L53" s="304"/>
-      <c r="M53" s="304"/>
-      <c r="N53" s="304"/>
-      <c r="O53" s="304"/>
-      <c r="P53" s="304"/>
-      <c r="Q53" s="304"/>
-      <c r="R53" s="304"/>
-      <c r="S53" s="305"/>
+      <c r="J53" s="309"/>
+      <c r="K53" s="309"/>
+      <c r="L53" s="309"/>
+      <c r="M53" s="309"/>
+      <c r="N53" s="309"/>
+      <c r="O53" s="309"/>
+      <c r="P53" s="309"/>
+      <c r="Q53" s="309"/>
+      <c r="R53" s="309"/>
+      <c r="S53" s="310"/>
       <c r="T53" s="259"/>
     </row>
-    <row r="54" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A54" s="281" t="s">
         <v>684</v>
       </c>
@@ -17806,22 +17798,22 @@
       <c r="H54" s="236" t="s">
         <v>665</v>
       </c>
-      <c r="I54" s="304" t="s">
+      <c r="I54" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J54" s="304"/>
-      <c r="K54" s="304"/>
-      <c r="L54" s="304"/>
-      <c r="M54" s="304"/>
-      <c r="N54" s="304"/>
-      <c r="O54" s="304"/>
-      <c r="P54" s="304"/>
-      <c r="Q54" s="304"/>
-      <c r="R54" s="304"/>
-      <c r="S54" s="305"/>
+      <c r="J54" s="309"/>
+      <c r="K54" s="309"/>
+      <c r="L54" s="309"/>
+      <c r="M54" s="309"/>
+      <c r="N54" s="309"/>
+      <c r="O54" s="309"/>
+      <c r="P54" s="309"/>
+      <c r="Q54" s="309"/>
+      <c r="R54" s="309"/>
+      <c r="S54" s="310"/>
       <c r="T54" s="260"/>
     </row>
-    <row r="55" spans="1:20" ht="70.900000000000006" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="281" t="s">
         <v>684</v>
       </c>
@@ -17846,22 +17838,22 @@
       <c r="H55" s="236" t="s">
         <v>668</v>
       </c>
-      <c r="I55" s="304" t="s">
+      <c r="I55" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J55" s="304"/>
-      <c r="K55" s="304"/>
-      <c r="L55" s="304"/>
-      <c r="M55" s="304"/>
-      <c r="N55" s="304"/>
-      <c r="O55" s="304"/>
-      <c r="P55" s="304"/>
-      <c r="Q55" s="304"/>
-      <c r="R55" s="304"/>
-      <c r="S55" s="305"/>
+      <c r="J55" s="309"/>
+      <c r="K55" s="309"/>
+      <c r="L55" s="309"/>
+      <c r="M55" s="309"/>
+      <c r="N55" s="309"/>
+      <c r="O55" s="309"/>
+      <c r="P55" s="309"/>
+      <c r="Q55" s="309"/>
+      <c r="R55" s="309"/>
+      <c r="S55" s="310"/>
       <c r="T55" s="237"/>
     </row>
-    <row r="56" spans="1:20" ht="81" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="281" t="s">
         <v>684</v>
       </c>
@@ -17886,22 +17878,22 @@
       <c r="H56" s="236" t="s">
         <v>594</v>
       </c>
-      <c r="I56" s="304" t="s">
+      <c r="I56" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J56" s="304"/>
-      <c r="K56" s="304"/>
-      <c r="L56" s="304"/>
-      <c r="M56" s="304"/>
-      <c r="N56" s="304"/>
-      <c r="O56" s="304"/>
-      <c r="P56" s="304"/>
-      <c r="Q56" s="304"/>
-      <c r="R56" s="304"/>
-      <c r="S56" s="305"/>
+      <c r="J56" s="309"/>
+      <c r="K56" s="309"/>
+      <c r="L56" s="309"/>
+      <c r="M56" s="309"/>
+      <c r="N56" s="309"/>
+      <c r="O56" s="309"/>
+      <c r="P56" s="309"/>
+      <c r="Q56" s="309"/>
+      <c r="R56" s="309"/>
+      <c r="S56" s="310"/>
       <c r="T56" s="259"/>
     </row>
-    <row r="57" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A57" s="281" t="s">
         <v>684</v>
       </c>
@@ -17935,7 +17927,7 @@
       <c r="S57" s="262"/>
       <c r="T57" s="237"/>
     </row>
-    <row r="58" spans="1:20" ht="51" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:20" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="282" t="s">
         <v>684</v>
       </c>
@@ -17971,7 +17963,7 @@
       <c r="S58" s="261"/>
       <c r="T58" s="263"/>
     </row>
-    <row r="59" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A59" s="280" t="s">
         <v>500</v>
       </c>
@@ -17993,23 +17985,23 @@
       <c r="G59" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="H59" s="310" t="s">
+      <c r="H59" s="307" t="s">
         <v>501</v>
       </c>
-      <c r="I59" s="310"/>
-      <c r="J59" s="310"/>
-      <c r="K59" s="310"/>
-      <c r="L59" s="310"/>
-      <c r="M59" s="310"/>
-      <c r="N59" s="310"/>
-      <c r="O59" s="310"/>
-      <c r="P59" s="310"/>
-      <c r="Q59" s="310"/>
-      <c r="R59" s="310"/>
-      <c r="S59" s="311"/>
+      <c r="I59" s="307"/>
+      <c r="J59" s="307"/>
+      <c r="K59" s="307"/>
+      <c r="L59" s="307"/>
+      <c r="M59" s="307"/>
+      <c r="N59" s="307"/>
+      <c r="O59" s="307"/>
+      <c r="P59" s="307"/>
+      <c r="Q59" s="307"/>
+      <c r="R59" s="307"/>
+      <c r="S59" s="308"/>
       <c r="T59" s="258"/>
     </row>
-    <row r="60" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="281" t="s">
         <v>500</v>
       </c>
@@ -18052,16 +18044,16 @@
       <c r="N60" s="236" t="s">
         <v>682</v>
       </c>
-      <c r="O60" s="304" t="s">
+      <c r="O60" s="309" t="s">
         <v>507</v>
       </c>
-      <c r="P60" s="304"/>
-      <c r="Q60" s="304"/>
-      <c r="R60" s="304"/>
-      <c r="S60" s="305"/>
+      <c r="P60" s="309"/>
+      <c r="Q60" s="309"/>
+      <c r="R60" s="309"/>
+      <c r="S60" s="310"/>
       <c r="T60" s="237"/>
     </row>
-    <row r="61" spans="1:20" ht="33" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A61" s="281" t="s">
         <v>500</v>
       </c>
@@ -18097,7 +18089,7 @@
       <c r="S61" s="262"/>
       <c r="T61" s="237"/>
     </row>
-    <row r="62" spans="1:20" ht="33" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A62" s="281" t="s">
         <v>500</v>
       </c>
@@ -18125,21 +18117,21 @@
       <c r="I62" s="236" t="s">
         <v>723</v>
       </c>
-      <c r="J62" s="304" t="s">
+      <c r="J62" s="309" t="s">
         <v>502</v>
       </c>
-      <c r="K62" s="304"/>
-      <c r="L62" s="304"/>
-      <c r="M62" s="304"/>
-      <c r="N62" s="304"/>
-      <c r="O62" s="304"/>
-      <c r="P62" s="304"/>
-      <c r="Q62" s="304"/>
-      <c r="R62" s="304"/>
-      <c r="S62" s="305"/>
+      <c r="K62" s="309"/>
+      <c r="L62" s="309"/>
+      <c r="M62" s="309"/>
+      <c r="N62" s="309"/>
+      <c r="O62" s="309"/>
+      <c r="P62" s="309"/>
+      <c r="Q62" s="309"/>
+      <c r="R62" s="309"/>
+      <c r="S62" s="310"/>
       <c r="T62" s="259"/>
     </row>
-    <row r="63" spans="1:20" ht="43.15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="281" t="s">
         <v>500</v>
       </c>
@@ -18164,22 +18156,22 @@
       <c r="H63" s="236" t="s">
         <v>725</v>
       </c>
-      <c r="I63" s="304" t="s">
+      <c r="I63" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J63" s="304"/>
-      <c r="K63" s="304"/>
-      <c r="L63" s="304"/>
-      <c r="M63" s="304"/>
-      <c r="N63" s="304"/>
-      <c r="O63" s="304"/>
-      <c r="P63" s="304"/>
-      <c r="Q63" s="304"/>
-      <c r="R63" s="304"/>
-      <c r="S63" s="305"/>
+      <c r="J63" s="309"/>
+      <c r="K63" s="309"/>
+      <c r="L63" s="309"/>
+      <c r="M63" s="309"/>
+      <c r="N63" s="309"/>
+      <c r="O63" s="309"/>
+      <c r="P63" s="309"/>
+      <c r="Q63" s="309"/>
+      <c r="R63" s="309"/>
+      <c r="S63" s="310"/>
       <c r="T63" s="237"/>
     </row>
-    <row r="64" spans="1:20" ht="33" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A64" s="281" t="s">
         <v>500</v>
       </c>
@@ -18204,22 +18196,22 @@
       <c r="H64" s="236" t="s">
         <v>715</v>
       </c>
-      <c r="I64" s="304" t="s">
+      <c r="I64" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J64" s="304"/>
-      <c r="K64" s="304"/>
-      <c r="L64" s="304"/>
-      <c r="M64" s="304"/>
-      <c r="N64" s="304"/>
-      <c r="O64" s="304"/>
-      <c r="P64" s="304"/>
-      <c r="Q64" s="304"/>
-      <c r="R64" s="304"/>
-      <c r="S64" s="305"/>
+      <c r="J64" s="309"/>
+      <c r="K64" s="309"/>
+      <c r="L64" s="309"/>
+      <c r="M64" s="309"/>
+      <c r="N64" s="309"/>
+      <c r="O64" s="309"/>
+      <c r="P64" s="309"/>
+      <c r="Q64" s="309"/>
+      <c r="R64" s="309"/>
+      <c r="S64" s="310"/>
       <c r="T64" s="260"/>
     </row>
-    <row r="65" spans="1:20" ht="33.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="282" t="s">
         <v>500</v>
       </c>
@@ -18255,7 +18247,7 @@
       <c r="S65" s="261"/>
       <c r="T65" s="264"/>
     </row>
-    <row r="66" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A66" s="280" t="s">
         <v>683</v>
       </c>
@@ -18277,23 +18269,23 @@
       <c r="G66" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="H66" s="310" t="s">
+      <c r="H66" s="307" t="s">
         <v>501</v>
       </c>
-      <c r="I66" s="310"/>
-      <c r="J66" s="310"/>
-      <c r="K66" s="310"/>
-      <c r="L66" s="310"/>
-      <c r="M66" s="310"/>
-      <c r="N66" s="310"/>
-      <c r="O66" s="310"/>
-      <c r="P66" s="310"/>
-      <c r="Q66" s="310"/>
-      <c r="R66" s="310"/>
-      <c r="S66" s="311"/>
+      <c r="I66" s="307"/>
+      <c r="J66" s="307"/>
+      <c r="K66" s="307"/>
+      <c r="L66" s="307"/>
+      <c r="M66" s="307"/>
+      <c r="N66" s="307"/>
+      <c r="O66" s="307"/>
+      <c r="P66" s="307"/>
+      <c r="Q66" s="307"/>
+      <c r="R66" s="307"/>
+      <c r="S66" s="308"/>
       <c r="T66" s="258"/>
     </row>
-    <row r="67" spans="1:20" ht="43.15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="281" t="s">
         <v>683</v>
       </c>
@@ -18336,16 +18328,16 @@
       <c r="N67" s="236" t="s">
         <v>686</v>
       </c>
-      <c r="O67" s="304" t="s">
+      <c r="O67" s="309" t="s">
         <v>507</v>
       </c>
-      <c r="P67" s="304"/>
-      <c r="Q67" s="304"/>
-      <c r="R67" s="304"/>
-      <c r="S67" s="305"/>
+      <c r="P67" s="309"/>
+      <c r="Q67" s="309"/>
+      <c r="R67" s="309"/>
+      <c r="S67" s="310"/>
       <c r="T67" s="237"/>
     </row>
-    <row r="68" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="281" t="s">
         <v>683</v>
       </c>
@@ -18381,7 +18373,7 @@
       <c r="S68" s="262"/>
       <c r="T68" s="237"/>
     </row>
-    <row r="69" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="281" t="s">
         <v>683</v>
       </c>
@@ -18409,21 +18401,21 @@
       <c r="I69" s="236" t="s">
         <v>723</v>
       </c>
-      <c r="J69" s="304" t="s">
+      <c r="J69" s="309" t="s">
         <v>502</v>
       </c>
-      <c r="K69" s="304"/>
-      <c r="L69" s="304"/>
-      <c r="M69" s="304"/>
-      <c r="N69" s="304"/>
-      <c r="O69" s="304"/>
-      <c r="P69" s="304"/>
-      <c r="Q69" s="304"/>
-      <c r="R69" s="304"/>
-      <c r="S69" s="305"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="309"/>
+      <c r="M69" s="309"/>
+      <c r="N69" s="309"/>
+      <c r="O69" s="309"/>
+      <c r="P69" s="309"/>
+      <c r="Q69" s="309"/>
+      <c r="R69" s="309"/>
+      <c r="S69" s="310"/>
       <c r="T69" s="260"/>
     </row>
-    <row r="70" spans="1:20" ht="43.15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="281" t="s">
         <v>683</v>
       </c>
@@ -18448,22 +18440,22 @@
       <c r="H70" s="236" t="s">
         <v>725</v>
       </c>
-      <c r="I70" s="304" t="s">
+      <c r="I70" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J70" s="304"/>
-      <c r="K70" s="304"/>
-      <c r="L70" s="304"/>
-      <c r="M70" s="304"/>
-      <c r="N70" s="304"/>
-      <c r="O70" s="304"/>
-      <c r="P70" s="304"/>
-      <c r="Q70" s="304"/>
-      <c r="R70" s="304"/>
-      <c r="S70" s="305"/>
+      <c r="J70" s="309"/>
+      <c r="K70" s="309"/>
+      <c r="L70" s="309"/>
+      <c r="M70" s="309"/>
+      <c r="N70" s="309"/>
+      <c r="O70" s="309"/>
+      <c r="P70" s="309"/>
+      <c r="Q70" s="309"/>
+      <c r="R70" s="309"/>
+      <c r="S70" s="310"/>
       <c r="T70" s="259"/>
     </row>
-    <row r="71" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="281" t="s">
         <v>683</v>
       </c>
@@ -18488,22 +18480,22 @@
       <c r="H71" s="236" t="s">
         <v>715</v>
       </c>
-      <c r="I71" s="304" t="s">
+      <c r="I71" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J71" s="304"/>
-      <c r="K71" s="304"/>
-      <c r="L71" s="304"/>
-      <c r="M71" s="304"/>
-      <c r="N71" s="304"/>
-      <c r="O71" s="304"/>
-      <c r="P71" s="304"/>
-      <c r="Q71" s="304"/>
-      <c r="R71" s="304"/>
-      <c r="S71" s="305"/>
+      <c r="J71" s="309"/>
+      <c r="K71" s="309"/>
+      <c r="L71" s="309"/>
+      <c r="M71" s="309"/>
+      <c r="N71" s="309"/>
+      <c r="O71" s="309"/>
+      <c r="P71" s="309"/>
+      <c r="Q71" s="309"/>
+      <c r="R71" s="309"/>
+      <c r="S71" s="310"/>
       <c r="T71" s="259"/>
     </row>
-    <row r="72" spans="1:20" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="281" t="s">
         <v>683</v>
       </c>
@@ -18539,7 +18531,7 @@
       <c r="S72" s="268"/>
       <c r="T72" s="269"/>
     </row>
-    <row r="73" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A73" s="280" t="s">
         <v>687</v>
       </c>
@@ -18561,23 +18553,23 @@
       <c r="G73" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="H73" s="310" t="s">
+      <c r="H73" s="307" t="s">
         <v>501</v>
       </c>
-      <c r="I73" s="310"/>
-      <c r="J73" s="310"/>
-      <c r="K73" s="310"/>
-      <c r="L73" s="310"/>
-      <c r="M73" s="310"/>
-      <c r="N73" s="310"/>
-      <c r="O73" s="310"/>
-      <c r="P73" s="310"/>
-      <c r="Q73" s="310"/>
-      <c r="R73" s="310"/>
-      <c r="S73" s="311"/>
+      <c r="I73" s="307"/>
+      <c r="J73" s="307"/>
+      <c r="K73" s="307"/>
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="307"/>
+      <c r="O73" s="307"/>
+      <c r="P73" s="307"/>
+      <c r="Q73" s="307"/>
+      <c r="R73" s="307"/>
+      <c r="S73" s="308"/>
       <c r="T73" s="258"/>
     </row>
-    <row r="74" spans="1:20" ht="111.4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A74" s="281" t="s">
         <v>687</v>
       </c>
@@ -18637,7 +18629,7 @@
       </c>
       <c r="T74" s="237"/>
     </row>
-    <row r="75" spans="1:20" ht="70.900000000000006" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A75" s="284" t="s">
         <v>687</v>
       </c>
@@ -18662,22 +18654,22 @@
       <c r="H75" s="236" t="s">
         <v>650</v>
       </c>
-      <c r="I75" s="304" t="s">
+      <c r="I75" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J75" s="304"/>
-      <c r="K75" s="304"/>
-      <c r="L75" s="304"/>
-      <c r="M75" s="304"/>
-      <c r="N75" s="304"/>
-      <c r="O75" s="304"/>
-      <c r="P75" s="304"/>
-      <c r="Q75" s="304"/>
-      <c r="R75" s="304"/>
-      <c r="S75" s="305"/>
+      <c r="J75" s="309"/>
+      <c r="K75" s="309"/>
+      <c r="L75" s="309"/>
+      <c r="M75" s="309"/>
+      <c r="N75" s="309"/>
+      <c r="O75" s="309"/>
+      <c r="P75" s="309"/>
+      <c r="Q75" s="309"/>
+      <c r="R75" s="309"/>
+      <c r="S75" s="310"/>
       <c r="T75" s="259"/>
     </row>
-    <row r="76" spans="1:20" ht="81" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A76" s="284" t="s">
         <v>687</v>
       </c>
@@ -18702,22 +18694,22 @@
       <c r="H76" s="236" t="s">
         <v>652</v>
       </c>
-      <c r="I76" s="304" t="s">
+      <c r="I76" s="309" t="s">
         <v>501</v>
       </c>
-      <c r="J76" s="304"/>
-      <c r="K76" s="304"/>
-      <c r="L76" s="304"/>
-      <c r="M76" s="304"/>
-      <c r="N76" s="304"/>
-      <c r="O76" s="304"/>
-      <c r="P76" s="304"/>
-      <c r="Q76" s="304"/>
-      <c r="R76" s="304"/>
-      <c r="S76" s="305"/>
+      <c r="J76" s="309"/>
+      <c r="K76" s="309"/>
+      <c r="L76" s="309"/>
+      <c r="M76" s="309"/>
+      <c r="N76" s="309"/>
+      <c r="O76" s="309"/>
+      <c r="P76" s="309"/>
+      <c r="Q76" s="309"/>
+      <c r="R76" s="309"/>
+      <c r="S76" s="310"/>
       <c r="T76" s="237"/>
     </row>
-    <row r="77" spans="1:20" ht="57" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="284" t="s">
         <v>687</v>
       </c>
@@ -18745,21 +18737,21 @@
       <c r="I77" s="236" t="s">
         <v>731</v>
       </c>
-      <c r="J77" s="304" t="s">
+      <c r="J77" s="309" t="s">
         <v>502</v>
       </c>
-      <c r="K77" s="304"/>
-      <c r="L77" s="304"/>
-      <c r="M77" s="304"/>
-      <c r="N77" s="304"/>
-      <c r="O77" s="304"/>
-      <c r="P77" s="304"/>
-      <c r="Q77" s="304"/>
-      <c r="R77" s="304"/>
-      <c r="S77" s="305"/>
+      <c r="K77" s="309"/>
+      <c r="L77" s="309"/>
+      <c r="M77" s="309"/>
+      <c r="N77" s="309"/>
+      <c r="O77" s="309"/>
+      <c r="P77" s="309"/>
+      <c r="Q77" s="309"/>
+      <c r="R77" s="309"/>
+      <c r="S77" s="310"/>
       <c r="T77" s="260"/>
     </row>
-    <row r="78" spans="1:20" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="284" t="s">
         <v>687</v>
       </c>
@@ -18784,22 +18776,22 @@
       <c r="H78" s="236" t="s">
         <v>725</v>
       </c>
-      <c r="I78" s="304" t="s">
+      <c r="I78" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J78" s="304"/>
-      <c r="K78" s="304"/>
-      <c r="L78" s="304"/>
-      <c r="M78" s="304"/>
-      <c r="N78" s="304"/>
-      <c r="O78" s="304"/>
-      <c r="P78" s="304"/>
-      <c r="Q78" s="304"/>
-      <c r="R78" s="304"/>
-      <c r="S78" s="305"/>
+      <c r="J78" s="309"/>
+      <c r="K78" s="309"/>
+      <c r="L78" s="309"/>
+      <c r="M78" s="309"/>
+      <c r="N78" s="309"/>
+      <c r="O78" s="309"/>
+      <c r="P78" s="309"/>
+      <c r="Q78" s="309"/>
+      <c r="R78" s="309"/>
+      <c r="S78" s="310"/>
       <c r="T78" s="260"/>
     </row>
-    <row r="79" spans="1:20" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="284" t="s">
         <v>687</v>
       </c>
@@ -18824,22 +18816,22 @@
       <c r="H79" s="236" t="s">
         <v>715</v>
       </c>
-      <c r="I79" s="304" t="s">
+      <c r="I79" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J79" s="304"/>
-      <c r="K79" s="304"/>
-      <c r="L79" s="304"/>
-      <c r="M79" s="304"/>
-      <c r="N79" s="304"/>
-      <c r="O79" s="304"/>
-      <c r="P79" s="304"/>
-      <c r="Q79" s="304"/>
-      <c r="R79" s="304"/>
-      <c r="S79" s="305"/>
+      <c r="J79" s="309"/>
+      <c r="K79" s="309"/>
+      <c r="L79" s="309"/>
+      <c r="M79" s="309"/>
+      <c r="N79" s="309"/>
+      <c r="O79" s="309"/>
+      <c r="P79" s="309"/>
+      <c r="Q79" s="309"/>
+      <c r="R79" s="309"/>
+      <c r="S79" s="310"/>
       <c r="T79" s="259"/>
     </row>
-    <row r="80" spans="1:20" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A80" s="284" t="s">
         <v>687</v>
       </c>
@@ -18864,22 +18856,22 @@
       <c r="H80" s="236" t="s">
         <v>654</v>
       </c>
-      <c r="I80" s="304" t="s">
+      <c r="I80" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J80" s="304"/>
-      <c r="K80" s="304"/>
-      <c r="L80" s="304"/>
-      <c r="M80" s="304"/>
-      <c r="N80" s="304"/>
-      <c r="O80" s="304"/>
-      <c r="P80" s="304"/>
-      <c r="Q80" s="304"/>
-      <c r="R80" s="304"/>
-      <c r="S80" s="305"/>
+      <c r="J80" s="309"/>
+      <c r="K80" s="309"/>
+      <c r="L80" s="309"/>
+      <c r="M80" s="309"/>
+      <c r="N80" s="309"/>
+      <c r="O80" s="309"/>
+      <c r="P80" s="309"/>
+      <c r="Q80" s="309"/>
+      <c r="R80" s="309"/>
+      <c r="S80" s="310"/>
       <c r="T80" s="237"/>
     </row>
-    <row r="81" spans="1:20" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="284" t="s">
         <v>687</v>
       </c>
@@ -18904,22 +18896,22 @@
       <c r="H81" s="236" t="s">
         <v>690</v>
       </c>
-      <c r="I81" s="304" t="s">
+      <c r="I81" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J81" s="304"/>
-      <c r="K81" s="304"/>
-      <c r="L81" s="304"/>
-      <c r="M81" s="304"/>
-      <c r="N81" s="304"/>
-      <c r="O81" s="304"/>
-      <c r="P81" s="304"/>
-      <c r="Q81" s="304"/>
-      <c r="R81" s="304"/>
-      <c r="S81" s="305"/>
+      <c r="J81" s="309"/>
+      <c r="K81" s="309"/>
+      <c r="L81" s="309"/>
+      <c r="M81" s="309"/>
+      <c r="N81" s="309"/>
+      <c r="O81" s="309"/>
+      <c r="P81" s="309"/>
+      <c r="Q81" s="309"/>
+      <c r="R81" s="309"/>
+      <c r="S81" s="310"/>
       <c r="T81" s="259"/>
     </row>
-    <row r="82" spans="1:20" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A82" s="284" t="s">
         <v>687</v>
       </c>
@@ -18944,22 +18936,22 @@
       <c r="H82" s="236" t="s">
         <v>657</v>
       </c>
-      <c r="I82" s="304" t="s">
+      <c r="I82" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J82" s="304"/>
-      <c r="K82" s="304"/>
-      <c r="L82" s="304"/>
-      <c r="M82" s="304"/>
-      <c r="N82" s="304"/>
-      <c r="O82" s="304"/>
-      <c r="P82" s="304"/>
-      <c r="Q82" s="304"/>
-      <c r="R82" s="304"/>
-      <c r="S82" s="305"/>
+      <c r="J82" s="309"/>
+      <c r="K82" s="309"/>
+      <c r="L82" s="309"/>
+      <c r="M82" s="309"/>
+      <c r="N82" s="309"/>
+      <c r="O82" s="309"/>
+      <c r="P82" s="309"/>
+      <c r="Q82" s="309"/>
+      <c r="R82" s="309"/>
+      <c r="S82" s="310"/>
       <c r="T82" s="260"/>
     </row>
-    <row r="83" spans="1:20" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A83" s="284" t="s">
         <v>687</v>
       </c>
@@ -18984,22 +18976,22 @@
       <c r="H83" s="236" t="s">
         <v>664</v>
       </c>
-      <c r="I83" s="304" t="s">
+      <c r="I83" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J83" s="304"/>
-      <c r="K83" s="304"/>
-      <c r="L83" s="304"/>
-      <c r="M83" s="304"/>
-      <c r="N83" s="304"/>
-      <c r="O83" s="304"/>
-      <c r="P83" s="304"/>
-      <c r="Q83" s="304"/>
-      <c r="R83" s="304"/>
-      <c r="S83" s="305"/>
+      <c r="J83" s="309"/>
+      <c r="K83" s="309"/>
+      <c r="L83" s="309"/>
+      <c r="M83" s="309"/>
+      <c r="N83" s="309"/>
+      <c r="O83" s="309"/>
+      <c r="P83" s="309"/>
+      <c r="Q83" s="309"/>
+      <c r="R83" s="309"/>
+      <c r="S83" s="310"/>
       <c r="T83" s="260"/>
     </row>
-    <row r="84" spans="1:20" ht="70.900000000000006" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="284" t="s">
         <v>687</v>
       </c>
@@ -19024,22 +19016,22 @@
       <c r="H84" s="236" t="s">
         <v>668</v>
       </c>
-      <c r="I84" s="304" t="s">
+      <c r="I84" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J84" s="304"/>
-      <c r="K84" s="304"/>
-      <c r="L84" s="304"/>
-      <c r="M84" s="304"/>
-      <c r="N84" s="304"/>
-      <c r="O84" s="304"/>
-      <c r="P84" s="304"/>
-      <c r="Q84" s="304"/>
-      <c r="R84" s="304"/>
-      <c r="S84" s="305"/>
+      <c r="J84" s="309"/>
+      <c r="K84" s="309"/>
+      <c r="L84" s="309"/>
+      <c r="M84" s="309"/>
+      <c r="N84" s="309"/>
+      <c r="O84" s="309"/>
+      <c r="P84" s="309"/>
+      <c r="Q84" s="309"/>
+      <c r="R84" s="309"/>
+      <c r="S84" s="310"/>
       <c r="T84" s="259"/>
     </row>
-    <row r="85" spans="1:20" ht="81" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="284" t="s">
         <v>687</v>
       </c>
@@ -19064,22 +19056,22 @@
       <c r="H85" s="236" t="s">
         <v>594</v>
       </c>
-      <c r="I85" s="304" t="s">
+      <c r="I85" s="309" t="s">
         <v>504</v>
       </c>
-      <c r="J85" s="304"/>
-      <c r="K85" s="304"/>
-      <c r="L85" s="304"/>
-      <c r="M85" s="304"/>
-      <c r="N85" s="304"/>
-      <c r="O85" s="304"/>
-      <c r="P85" s="304"/>
-      <c r="Q85" s="304"/>
-      <c r="R85" s="304"/>
-      <c r="S85" s="305"/>
+      <c r="J85" s="309"/>
+      <c r="K85" s="309"/>
+      <c r="L85" s="309"/>
+      <c r="M85" s="309"/>
+      <c r="N85" s="309"/>
+      <c r="O85" s="309"/>
+      <c r="P85" s="309"/>
+      <c r="Q85" s="309"/>
+      <c r="R85" s="309"/>
+      <c r="S85" s="310"/>
       <c r="T85" s="237"/>
     </row>
-    <row r="86" spans="1:20" ht="52.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:20" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="285" t="s">
         <v>687</v>
       </c>
@@ -19115,7 +19107,7 @@
       <c r="S86" s="261"/>
       <c r="T86" s="242"/>
     </row>
-    <row r="87" spans="1:20" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A87" s="280" t="s">
         <v>500</v>
       </c>
@@ -19137,23 +19129,23 @@
       <c r="G87" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="H87" s="310" t="s">
+      <c r="H87" s="307" t="s">
         <v>501</v>
       </c>
-      <c r="I87" s="310"/>
-      <c r="J87" s="310"/>
-      <c r="K87" s="310"/>
-      <c r="L87" s="310"/>
-      <c r="M87" s="310"/>
-      <c r="N87" s="310"/>
-      <c r="O87" s="310"/>
-      <c r="P87" s="310"/>
-      <c r="Q87" s="310"/>
-      <c r="R87" s="310"/>
-      <c r="S87" s="311"/>
+      <c r="I87" s="307"/>
+      <c r="J87" s="307"/>
+      <c r="K87" s="307"/>
+      <c r="L87" s="307"/>
+      <c r="M87" s="307"/>
+      <c r="N87" s="307"/>
+      <c r="O87" s="307"/>
+      <c r="P87" s="307"/>
+      <c r="Q87" s="307"/>
+      <c r="R87" s="307"/>
+      <c r="S87" s="308"/>
       <c r="T87" s="258"/>
     </row>
-    <row r="88" spans="1:20" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="281" t="s">
         <v>500</v>
       </c>
@@ -19187,19 +19179,19 @@
       <c r="K88" s="236" t="s">
         <v>718</v>
       </c>
-      <c r="L88" s="304" t="s">
+      <c r="L88" s="309" t="s">
         <v>503</v>
       </c>
-      <c r="M88" s="304"/>
-      <c r="N88" s="304"/>
-      <c r="O88" s="304"/>
-      <c r="P88" s="304"/>
-      <c r="Q88" s="304"/>
-      <c r="R88" s="304"/>
-      <c r="S88" s="305"/>
+      <c r="M88" s="309"/>
+      <c r="N88" s="309"/>
+      <c r="O88" s="309"/>
+      <c r="P88" s="309"/>
+      <c r="Q88" s="309"/>
+      <c r="R88" s="309"/>
+      <c r="S88" s="310"/>
       <c r="T88" s="237"/>
     </row>
-    <row r="89" spans="1:20" ht="33" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A89" s="281" t="s">
         <v>500</v>
       </c>
@@ -19235,7 +19227,7 @@
       <c r="S89" s="262"/>
       <c r="T89" s="237"/>
     </row>
-    <row r="90" spans="1:20" ht="33" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A90" s="281" t="s">
         <v>500</v>
       </c>
@@ -19263,21 +19255,21 @@
       <c r="I90" s="236" t="s">
         <v>723</v>
       </c>
-      <c r="J90" s="304" t="s">
+      <c r="J90" s="309" t="s">
         <v>502</v>
       </c>
-      <c r="K90" s="304"/>
-      <c r="L90" s="304"/>
-      <c r="M90" s="304"/>
-      <c r="N90" s="304"/>
-      <c r="O90" s="304"/>
-      <c r="P90" s="304"/>
-      <c r="Q90" s="304"/>
-      <c r="R90" s="304"/>
-      <c r="S90" s="305"/>
+      <c r="K90" s="309"/>
+      <c r="L90" s="309"/>
+      <c r="M90" s="309"/>
+      <c r="N90" s="309"/>
+      <c r="O90" s="309"/>
+      <c r="P90" s="309"/>
+      <c r="Q90" s="309"/>
+      <c r="R90" s="309"/>
+      <c r="S90" s="310"/>
       <c r="T90" s="273"/>
     </row>
-    <row r="91" spans="1:20" ht="33.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="282" t="s">
         <v>500</v>
       </c>
@@ -19313,7 +19305,7 @@
       <c r="S91" s="261"/>
       <c r="T91" s="242"/>
     </row>
-    <row r="92" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="279" t="s">
         <v>128</v>
       </c>
@@ -19345,7 +19337,7 @@
       <c r="S92" s="228"/>
       <c r="T92" s="219"/>
     </row>
-    <row r="93" spans="1:20" ht="141.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:20" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A93" s="280" t="s">
         <v>704</v>
       </c>
@@ -19376,22 +19368,22 @@
       <c r="J93" s="274" t="s">
         <v>698</v>
       </c>
-      <c r="K93" s="310" t="s">
+      <c r="K93" s="307" t="s">
         <v>509</v>
       </c>
-      <c r="L93" s="310"/>
-      <c r="M93" s="310"/>
-      <c r="N93" s="310"/>
-      <c r="O93" s="310"/>
-      <c r="P93" s="310"/>
-      <c r="Q93" s="310"/>
-      <c r="R93" s="310"/>
-      <c r="S93" s="311"/>
+      <c r="L93" s="307"/>
+      <c r="M93" s="307"/>
+      <c r="N93" s="307"/>
+      <c r="O93" s="307"/>
+      <c r="P93" s="307"/>
+      <c r="Q93" s="307"/>
+      <c r="R93" s="307"/>
+      <c r="S93" s="308"/>
       <c r="T93" s="230" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="40.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A94" s="281" t="s">
         <v>704</v>
       </c>
@@ -19422,16 +19414,16 @@
       <c r="J94" s="236" t="s">
         <v>510</v>
       </c>
-      <c r="K94" s="312" t="s">
+      <c r="K94" s="321" t="s">
         <v>700</v>
       </c>
-      <c r="L94" s="312"/>
-      <c r="M94" s="312"/>
-      <c r="N94" s="312"/>
-      <c r="O94" s="312"/>
-      <c r="P94" s="312"/>
-      <c r="Q94" s="312"/>
-      <c r="R94" s="312"/>
+      <c r="L94" s="321"/>
+      <c r="M94" s="321"/>
+      <c r="N94" s="321"/>
+      <c r="O94" s="321"/>
+      <c r="P94" s="321"/>
+      <c r="Q94" s="321"/>
+      <c r="R94" s="321"/>
       <c r="S94" s="238" t="s">
         <v>511</v>
       </c>
@@ -19439,7 +19431,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="40.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:20" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="282" t="s">
         <v>704</v>
       </c>
@@ -19470,22 +19462,22 @@
       <c r="J95" s="275" t="s">
         <v>702</v>
       </c>
-      <c r="K95" s="306" t="s">
+      <c r="K95" s="317" t="s">
         <v>703</v>
       </c>
-      <c r="L95" s="306"/>
-      <c r="M95" s="306"/>
-      <c r="N95" s="306"/>
-      <c r="O95" s="306"/>
-      <c r="P95" s="306"/>
-      <c r="Q95" s="306"/>
-      <c r="R95" s="306"/>
+      <c r="L95" s="317"/>
+      <c r="M95" s="317"/>
+      <c r="N95" s="317"/>
+      <c r="O95" s="317"/>
+      <c r="P95" s="317"/>
+      <c r="Q95" s="317"/>
+      <c r="R95" s="317"/>
       <c r="S95" s="276" t="s">
         <v>511</v>
       </c>
       <c r="T95" s="263"/>
     </row>
-    <row r="96" spans="1:20" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="279" t="s">
         <v>128</v>
       </c>
@@ -19519,7 +19511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="81" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="280" t="s">
         <v>190</v>
       </c>
@@ -19553,19 +19545,19 @@
       <c r="K97" s="274" t="s">
         <v>695</v>
       </c>
-      <c r="L97" s="308" t="s">
+      <c r="L97" s="319" t="s">
         <v>587</v>
       </c>
-      <c r="M97" s="308"/>
-      <c r="N97" s="308"/>
-      <c r="O97" s="308"/>
-      <c r="P97" s="308"/>
-      <c r="Q97" s="308"/>
-      <c r="R97" s="308"/>
-      <c r="S97" s="309"/>
+      <c r="M97" s="319"/>
+      <c r="N97" s="319"/>
+      <c r="O97" s="319"/>
+      <c r="P97" s="319"/>
+      <c r="Q97" s="319"/>
+      <c r="R97" s="319"/>
+      <c r="S97" s="320"/>
       <c r="T97" s="258"/>
     </row>
-    <row r="98" spans="1:20" ht="81.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="282" t="s">
         <v>190</v>
       </c>
@@ -19599,19 +19591,19 @@
       <c r="K98" s="275" t="s">
         <v>695</v>
       </c>
-      <c r="L98" s="306" t="s">
+      <c r="L98" s="317" t="s">
         <v>587</v>
       </c>
-      <c r="M98" s="306"/>
-      <c r="N98" s="306"/>
-      <c r="O98" s="306"/>
-      <c r="P98" s="306"/>
-      <c r="Q98" s="306"/>
-      <c r="R98" s="306"/>
-      <c r="S98" s="307"/>
+      <c r="M98" s="317"/>
+      <c r="N98" s="317"/>
+      <c r="O98" s="317"/>
+      <c r="P98" s="317"/>
+      <c r="Q98" s="317"/>
+      <c r="R98" s="317"/>
+      <c r="S98" s="318"/>
       <c r="T98" s="263"/>
     </row>
-    <row r="99" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="279" t="s">
         <v>128</v>
       </c>
@@ -19645,7 +19637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="71.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:20" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="277" t="s">
         <v>512</v>
       </c>
@@ -19661,25 +19653,25 @@
       <c r="E100" s="214" t="s">
         <v>679</v>
       </c>
-      <c r="F100" s="315" t="s">
+      <c r="F100" s="306" t="s">
         <v>513</v>
       </c>
-      <c r="G100" s="313"/>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
-      <c r="K100" s="313"/>
-      <c r="L100" s="313"/>
-      <c r="M100" s="313"/>
-      <c r="N100" s="313"/>
-      <c r="O100" s="313"/>
-      <c r="P100" s="313"/>
-      <c r="Q100" s="313"/>
-      <c r="R100" s="313"/>
-      <c r="S100" s="314"/>
+      <c r="G100" s="304"/>
+      <c r="H100" s="304"/>
+      <c r="I100" s="304"/>
+      <c r="J100" s="304"/>
+      <c r="K100" s="304"/>
+      <c r="L100" s="304"/>
+      <c r="M100" s="304"/>
+      <c r="N100" s="304"/>
+      <c r="O100" s="304"/>
+      <c r="P100" s="304"/>
+      <c r="Q100" s="304"/>
+      <c r="R100" s="304"/>
+      <c r="S100" s="305"/>
       <c r="T100" s="218"/>
     </row>
-    <row r="101" spans="1:20" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="277" t="s">
         <v>756</v>
       </c>
@@ -19695,27 +19687,27 @@
       <c r="E101" s="214" t="s">
         <v>755</v>
       </c>
-      <c r="F101" s="315" t="s">
+      <c r="F101" s="306" t="s">
         <v>514</v>
       </c>
-      <c r="G101" s="313"/>
-      <c r="H101" s="313"/>
-      <c r="I101" s="313"/>
-      <c r="J101" s="313"/>
-      <c r="K101" s="313"/>
-      <c r="L101" s="313"/>
-      <c r="M101" s="313"/>
-      <c r="N101" s="313"/>
-      <c r="O101" s="313"/>
-      <c r="P101" s="313"/>
-      <c r="Q101" s="313"/>
-      <c r="R101" s="313"/>
-      <c r="S101" s="314"/>
+      <c r="G101" s="304"/>
+      <c r="H101" s="304"/>
+      <c r="I101" s="304"/>
+      <c r="J101" s="304"/>
+      <c r="K101" s="304"/>
+      <c r="L101" s="304"/>
+      <c r="M101" s="304"/>
+      <c r="N101" s="304"/>
+      <c r="O101" s="304"/>
+      <c r="P101" s="304"/>
+      <c r="Q101" s="304"/>
+      <c r="R101" s="304"/>
+      <c r="S101" s="305"/>
       <c r="T101" s="213" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="279" t="s">
         <v>128</v>
       </c>
@@ -19749,7 +19741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="277" t="s">
         <v>515</v>
       </c>
@@ -19768,24 +19760,24 @@
       <c r="F103" s="215" t="s">
         <v>738</v>
       </c>
-      <c r="G103" s="313" t="s">
+      <c r="G103" s="304" t="s">
         <v>739</v>
       </c>
-      <c r="H103" s="313"/>
-      <c r="I103" s="313"/>
-      <c r="J103" s="313"/>
-      <c r="K103" s="313"/>
-      <c r="L103" s="313"/>
-      <c r="M103" s="313"/>
-      <c r="N103" s="313"/>
-      <c r="O103" s="313"/>
-      <c r="P103" s="313"/>
-      <c r="Q103" s="313"/>
-      <c r="R103" s="313"/>
-      <c r="S103" s="314"/>
+      <c r="H103" s="304"/>
+      <c r="I103" s="304"/>
+      <c r="J103" s="304"/>
+      <c r="K103" s="304"/>
+      <c r="L103" s="304"/>
+      <c r="M103" s="304"/>
+      <c r="N103" s="304"/>
+      <c r="O103" s="304"/>
+      <c r="P103" s="304"/>
+      <c r="Q103" s="304"/>
+      <c r="R103" s="304"/>
+      <c r="S103" s="305"/>
       <c r="T103" s="218"/>
     </row>
-    <row r="104" spans="1:20" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="277" t="s">
         <v>677</v>
       </c>
@@ -19801,25 +19793,25 @@
       <c r="E104" s="214" t="s">
         <v>130</v>
       </c>
-      <c r="F104" s="315" t="s">
+      <c r="F104" s="306" t="s">
         <v>740</v>
       </c>
-      <c r="G104" s="313"/>
-      <c r="H104" s="313"/>
-      <c r="I104" s="313"/>
-      <c r="J104" s="313"/>
-      <c r="K104" s="313"/>
-      <c r="L104" s="313"/>
-      <c r="M104" s="313"/>
-      <c r="N104" s="313"/>
-      <c r="O104" s="313"/>
-      <c r="P104" s="313"/>
-      <c r="Q104" s="313"/>
-      <c r="R104" s="313"/>
-      <c r="S104" s="314"/>
+      <c r="G104" s="304"/>
+      <c r="H104" s="304"/>
+      <c r="I104" s="304"/>
+      <c r="J104" s="304"/>
+      <c r="K104" s="304"/>
+      <c r="L104" s="304"/>
+      <c r="M104" s="304"/>
+      <c r="N104" s="304"/>
+      <c r="O104" s="304"/>
+      <c r="P104" s="304"/>
+      <c r="Q104" s="304"/>
+      <c r="R104" s="304"/>
+      <c r="S104" s="305"/>
       <c r="T104" s="218"/>
     </row>
-    <row r="105" spans="1:20" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="279" t="s">
         <v>128</v>
       </c>
@@ -19853,7 +19845,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="279" t="s">
         <v>128</v>
       </c>
@@ -19887,7 +19879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="280" t="s">
         <v>516</v>
       </c>
@@ -19921,7 +19913,7 @@
       <c r="S107" s="288"/>
       <c r="T107" s="258"/>
     </row>
-    <row r="108" spans="1:20" ht="22.9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="281" t="s">
         <v>516</v>
       </c>
@@ -19943,23 +19935,23 @@
       <c r="G108" s="236" t="s">
         <v>743</v>
       </c>
-      <c r="H108" s="304" t="s">
+      <c r="H108" s="309" t="s">
         <v>501</v>
       </c>
-      <c r="I108" s="304"/>
-      <c r="J108" s="304"/>
-      <c r="K108" s="304"/>
-      <c r="L108" s="304"/>
-      <c r="M108" s="304"/>
-      <c r="N108" s="304"/>
-      <c r="O108" s="304"/>
-      <c r="P108" s="304"/>
-      <c r="Q108" s="304"/>
-      <c r="R108" s="304"/>
-      <c r="S108" s="305"/>
+      <c r="I108" s="309"/>
+      <c r="J108" s="309"/>
+      <c r="K108" s="309"/>
+      <c r="L108" s="309"/>
+      <c r="M108" s="309"/>
+      <c r="N108" s="309"/>
+      <c r="O108" s="309"/>
+      <c r="P108" s="309"/>
+      <c r="Q108" s="309"/>
+      <c r="R108" s="309"/>
+      <c r="S108" s="310"/>
       <c r="T108" s="259"/>
     </row>
-    <row r="109" spans="1:20" ht="22.9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="281" t="s">
         <v>516</v>
       </c>
@@ -19981,23 +19973,23 @@
       <c r="G109" s="236" t="s">
         <v>743</v>
       </c>
-      <c r="H109" s="304" t="s">
+      <c r="H109" s="309" t="s">
         <v>501</v>
       </c>
-      <c r="I109" s="304"/>
-      <c r="J109" s="304"/>
-      <c r="K109" s="304"/>
-      <c r="L109" s="304"/>
-      <c r="M109" s="304"/>
-      <c r="N109" s="304"/>
-      <c r="O109" s="304"/>
-      <c r="P109" s="304"/>
-      <c r="Q109" s="304"/>
-      <c r="R109" s="304"/>
-      <c r="S109" s="305"/>
+      <c r="I109" s="309"/>
+      <c r="J109" s="309"/>
+      <c r="K109" s="309"/>
+      <c r="L109" s="309"/>
+      <c r="M109" s="309"/>
+      <c r="N109" s="309"/>
+      <c r="O109" s="309"/>
+      <c r="P109" s="309"/>
+      <c r="Q109" s="309"/>
+      <c r="R109" s="309"/>
+      <c r="S109" s="310"/>
       <c r="T109" s="259"/>
     </row>
-    <row r="110" spans="1:20" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="282" t="s">
         <v>516</v>
       </c>
@@ -20031,7 +20023,7 @@
       <c r="S110" s="261"/>
       <c r="T110" s="263"/>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="280" t="s">
         <v>517</v>
       </c>
@@ -20065,7 +20057,7 @@
       <c r="S111" s="289"/>
       <c r="T111" s="258"/>
     </row>
-    <row r="112" spans="1:20" ht="22.9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="281" t="s">
         <v>517</v>
       </c>
@@ -20087,23 +20079,23 @@
       <c r="G112" s="236" t="s">
         <v>746</v>
       </c>
-      <c r="H112" s="304" t="s">
+      <c r="H112" s="309" t="s">
         <v>501</v>
       </c>
-      <c r="I112" s="304"/>
-      <c r="J112" s="304"/>
-      <c r="K112" s="304"/>
-      <c r="L112" s="304"/>
-      <c r="M112" s="304"/>
-      <c r="N112" s="304"/>
-      <c r="O112" s="304"/>
-      <c r="P112" s="304"/>
-      <c r="Q112" s="304"/>
-      <c r="R112" s="304"/>
-      <c r="S112" s="305"/>
+      <c r="I112" s="309"/>
+      <c r="J112" s="309"/>
+      <c r="K112" s="309"/>
+      <c r="L112" s="309"/>
+      <c r="M112" s="309"/>
+      <c r="N112" s="309"/>
+      <c r="O112" s="309"/>
+      <c r="P112" s="309"/>
+      <c r="Q112" s="309"/>
+      <c r="R112" s="309"/>
+      <c r="S112" s="310"/>
       <c r="T112" s="259"/>
     </row>
-    <row r="113" spans="1:20" ht="22.9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A113" s="281" t="s">
         <v>517</v>
       </c>
@@ -20125,23 +20117,23 @@
       <c r="G113" s="236" t="s">
         <v>746</v>
       </c>
-      <c r="H113" s="304" t="s">
+      <c r="H113" s="309" t="s">
         <v>501</v>
       </c>
-      <c r="I113" s="304"/>
-      <c r="J113" s="304"/>
-      <c r="K113" s="304"/>
-      <c r="L113" s="304"/>
-      <c r="M113" s="304"/>
-      <c r="N113" s="304"/>
-      <c r="O113" s="304"/>
-      <c r="P113" s="304"/>
-      <c r="Q113" s="304"/>
-      <c r="R113" s="304"/>
-      <c r="S113" s="305"/>
+      <c r="I113" s="309"/>
+      <c r="J113" s="309"/>
+      <c r="K113" s="309"/>
+      <c r="L113" s="309"/>
+      <c r="M113" s="309"/>
+      <c r="N113" s="309"/>
+      <c r="O113" s="309"/>
+      <c r="P113" s="309"/>
+      <c r="Q113" s="309"/>
+      <c r="R113" s="309"/>
+      <c r="S113" s="310"/>
       <c r="T113" s="259"/>
     </row>
-    <row r="114" spans="1:20" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="282" t="s">
         <v>517</v>
       </c>
@@ -20175,7 +20167,7 @@
       <c r="S114" s="261"/>
       <c r="T114" s="263"/>
     </row>
-    <row r="115" spans="1:20" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="279" t="s">
         <v>128</v>
       </c>
@@ -20209,7 +20201,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="279" t="s">
         <v>128</v>
       </c>
@@ -20243,7 +20235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="33.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="277" t="s">
         <v>518</v>
       </c>
@@ -20262,24 +20254,24 @@
       <c r="F117" s="215" t="s">
         <v>749</v>
       </c>
-      <c r="G117" s="313" t="s">
+      <c r="G117" s="304" t="s">
         <v>739</v>
       </c>
-      <c r="H117" s="313"/>
-      <c r="I117" s="313"/>
-      <c r="J117" s="313"/>
-      <c r="K117" s="313"/>
-      <c r="L117" s="313"/>
-      <c r="M117" s="313"/>
-      <c r="N117" s="313"/>
-      <c r="O117" s="313"/>
-      <c r="P117" s="313"/>
-      <c r="Q117" s="313"/>
-      <c r="R117" s="313"/>
-      <c r="S117" s="314"/>
+      <c r="H117" s="304"/>
+      <c r="I117" s="304"/>
+      <c r="J117" s="304"/>
+      <c r="K117" s="304"/>
+      <c r="L117" s="304"/>
+      <c r="M117" s="304"/>
+      <c r="N117" s="304"/>
+      <c r="O117" s="304"/>
+      <c r="P117" s="304"/>
+      <c r="Q117" s="304"/>
+      <c r="R117" s="304"/>
+      <c r="S117" s="305"/>
       <c r="T117" s="218"/>
     </row>
-    <row r="118" spans="1:20" ht="33.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="277" t="s">
         <v>519</v>
       </c>
@@ -20298,24 +20290,24 @@
       <c r="F118" s="215" t="s">
         <v>749</v>
       </c>
-      <c r="G118" s="313" t="s">
+      <c r="G118" s="304" t="s">
         <v>739</v>
       </c>
-      <c r="H118" s="313"/>
-      <c r="I118" s="313"/>
-      <c r="J118" s="313"/>
-      <c r="K118" s="313"/>
-      <c r="L118" s="313"/>
-      <c r="M118" s="313"/>
-      <c r="N118" s="313"/>
-      <c r="O118" s="313"/>
-      <c r="P118" s="313"/>
-      <c r="Q118" s="313"/>
-      <c r="R118" s="313"/>
-      <c r="S118" s="314"/>
+      <c r="H118" s="304"/>
+      <c r="I118" s="304"/>
+      <c r="J118" s="304"/>
+      <c r="K118" s="304"/>
+      <c r="L118" s="304"/>
+      <c r="M118" s="304"/>
+      <c r="N118" s="304"/>
+      <c r="O118" s="304"/>
+      <c r="P118" s="304"/>
+      <c r="Q118" s="304"/>
+      <c r="R118" s="304"/>
+      <c r="S118" s="305"/>
       <c r="T118" s="218"/>
     </row>
-    <row r="119" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="279" t="s">
         <v>128</v>
       </c>
@@ -20349,7 +20341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="33.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="277" t="s">
         <v>520</v>
       </c>
@@ -20371,23 +20363,23 @@
       <c r="G120" s="216" t="s">
         <v>751</v>
       </c>
-      <c r="H120" s="313" t="s">
+      <c r="H120" s="304" t="s">
         <v>501</v>
       </c>
-      <c r="I120" s="313"/>
-      <c r="J120" s="313"/>
-      <c r="K120" s="313"/>
-      <c r="L120" s="313"/>
-      <c r="M120" s="313"/>
-      <c r="N120" s="313"/>
-      <c r="O120" s="313"/>
-      <c r="P120" s="313"/>
-      <c r="Q120" s="313"/>
-      <c r="R120" s="313"/>
-      <c r="S120" s="314"/>
+      <c r="I120" s="304"/>
+      <c r="J120" s="304"/>
+      <c r="K120" s="304"/>
+      <c r="L120" s="304"/>
+      <c r="M120" s="304"/>
+      <c r="N120" s="304"/>
+      <c r="O120" s="304"/>
+      <c r="P120" s="304"/>
+      <c r="Q120" s="304"/>
+      <c r="R120" s="304"/>
+      <c r="S120" s="305"/>
       <c r="T120" s="218"/>
     </row>
-    <row r="121" spans="1:20" ht="33.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="277" t="s">
         <v>521</v>
       </c>
@@ -20409,23 +20401,23 @@
       <c r="G121" s="216" t="s">
         <v>751</v>
       </c>
-      <c r="H121" s="313" t="s">
+      <c r="H121" s="304" t="s">
         <v>501</v>
       </c>
-      <c r="I121" s="313"/>
-      <c r="J121" s="313"/>
-      <c r="K121" s="313"/>
-      <c r="L121" s="313"/>
-      <c r="M121" s="313"/>
-      <c r="N121" s="313"/>
-      <c r="O121" s="313"/>
-      <c r="P121" s="313"/>
-      <c r="Q121" s="313"/>
-      <c r="R121" s="313"/>
-      <c r="S121" s="314"/>
+      <c r="I121" s="304"/>
+      <c r="J121" s="304"/>
+      <c r="K121" s="304"/>
+      <c r="L121" s="304"/>
+      <c r="M121" s="304"/>
+      <c r="N121" s="304"/>
+      <c r="O121" s="304"/>
+      <c r="P121" s="304"/>
+      <c r="Q121" s="304"/>
+      <c r="R121" s="304"/>
+      <c r="S121" s="305"/>
       <c r="T121" s="218"/>
     </row>
-    <row r="122" spans="1:20" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="279" t="s">
         <v>128</v>
       </c>
@@ -20459,7 +20451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="20.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="277" t="s">
         <v>316</v>
       </c>
@@ -20494,21 +20486,79 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D123" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0x2E"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D123" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="94">
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="F7:S7"/>
-    <mergeCell ref="F8:S8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:S9"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="L88:S88"/>
+    <mergeCell ref="J90:S90"/>
+    <mergeCell ref="L98:S98"/>
+    <mergeCell ref="L97:S97"/>
+    <mergeCell ref="K93:S93"/>
+    <mergeCell ref="K94:R94"/>
+    <mergeCell ref="K95:R95"/>
+    <mergeCell ref="I83:S83"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="J69:S69"/>
+    <mergeCell ref="I70:S70"/>
+    <mergeCell ref="I71:S71"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="I78:S78"/>
+    <mergeCell ref="I79:S79"/>
+    <mergeCell ref="I80:S80"/>
+    <mergeCell ref="I81:S81"/>
+    <mergeCell ref="I82:S82"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="J62:S62"/>
+    <mergeCell ref="I63:S63"/>
+    <mergeCell ref="I64:S64"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="I56:S56"/>
+    <mergeCell ref="H121:S121"/>
+    <mergeCell ref="H120:S120"/>
+    <mergeCell ref="G117:S117"/>
+    <mergeCell ref="G118:S118"/>
+    <mergeCell ref="H112:S112"/>
+    <mergeCell ref="H113:S113"/>
+    <mergeCell ref="H108:S108"/>
+    <mergeCell ref="H109:S109"/>
+    <mergeCell ref="F104:S104"/>
+    <mergeCell ref="G103:S103"/>
+    <mergeCell ref="F100:S100"/>
+    <mergeCell ref="F101:S101"/>
+    <mergeCell ref="I84:S84"/>
+    <mergeCell ref="I85:S85"/>
+    <mergeCell ref="I50:S50"/>
+    <mergeCell ref="I51:S51"/>
+    <mergeCell ref="I52:S52"/>
+    <mergeCell ref="I53:S53"/>
+    <mergeCell ref="I54:S54"/>
+    <mergeCell ref="I42:S42"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="I46:S46"/>
+    <mergeCell ref="I47:S47"/>
+    <mergeCell ref="I49:S49"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="K18:S18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="H28:S28"/>
+    <mergeCell ref="H27:S27"/>
+    <mergeCell ref="H26:S26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="H25:Q25"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="J17:S17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I16:S16"/>
+    <mergeCell ref="H15:S15"/>
     <mergeCell ref="H87:S87"/>
     <mergeCell ref="I76:S76"/>
     <mergeCell ref="J77:S77"/>
@@ -20525,83 +20575,25 @@
     <mergeCell ref="I39:S39"/>
     <mergeCell ref="I55:S55"/>
     <mergeCell ref="I41:S41"/>
-    <mergeCell ref="K18:S18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="H28:S28"/>
-    <mergeCell ref="H27:S27"/>
-    <mergeCell ref="H26:S26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="H25:Q25"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="I23:S23"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="J17:S17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I16:S16"/>
-    <mergeCell ref="H15:S15"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="I42:S42"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="I46:S46"/>
-    <mergeCell ref="I47:S47"/>
-    <mergeCell ref="I49:S49"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="I50:S50"/>
-    <mergeCell ref="I51:S51"/>
-    <mergeCell ref="I52:S52"/>
-    <mergeCell ref="I53:S53"/>
-    <mergeCell ref="I54:S54"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="I56:S56"/>
-    <mergeCell ref="H121:S121"/>
-    <mergeCell ref="H120:S120"/>
-    <mergeCell ref="G117:S117"/>
-    <mergeCell ref="G118:S118"/>
-    <mergeCell ref="H112:S112"/>
-    <mergeCell ref="H113:S113"/>
-    <mergeCell ref="H108:S108"/>
-    <mergeCell ref="H109:S109"/>
-    <mergeCell ref="F104:S104"/>
-    <mergeCell ref="G103:S103"/>
-    <mergeCell ref="F100:S100"/>
-    <mergeCell ref="F101:S101"/>
-    <mergeCell ref="I84:S84"/>
-    <mergeCell ref="I85:S85"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="O60:S60"/>
-    <mergeCell ref="J62:S62"/>
-    <mergeCell ref="I63:S63"/>
-    <mergeCell ref="I64:S64"/>
-    <mergeCell ref="I83:S83"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="J69:S69"/>
-    <mergeCell ref="I70:S70"/>
-    <mergeCell ref="I71:S71"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="I78:S78"/>
-    <mergeCell ref="I79:S79"/>
-    <mergeCell ref="I80:S80"/>
-    <mergeCell ref="I81:S81"/>
-    <mergeCell ref="I82:S82"/>
-    <mergeCell ref="L88:S88"/>
-    <mergeCell ref="J90:S90"/>
-    <mergeCell ref="L98:S98"/>
-    <mergeCell ref="L97:S97"/>
-    <mergeCell ref="K93:S93"/>
-    <mergeCell ref="K94:R94"/>
-    <mergeCell ref="K95:R95"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="F7:S7"/>
+    <mergeCell ref="F8:S8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:S9"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100705C59A470133A40B3149B73EE7B0BB7" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab14bb24a96a66e60853fb42d1d765be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af38b9b644a81b8d1a7c3fb87210d9e4">
     <xsd:element name="properties">
@@ -20715,12 +20707,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20731,6 +20717,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53463904-E151-4502-B1B3-A0AAC0FECE32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED1FB65E-8B25-4FBD-9AE1-BF52C94C9671}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20746,21 +20747,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53463904-E151-4502-B1B3-A0AAC0FECE32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EBB9D6-1F9F-4D07-B3AA-FAD5FEE03D1B}">
   <ds:schemaRefs>
